--- a/deuChatbot/research_result/version_1(3500_400).xlsx
+++ b/deuChatbot/research_result/version_1(3500_400).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13741,6 +13741,7240 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하는 대신, 일반적인 실기 시험의 예시를 나열하고 있습니다. 이는 원본 텍스트의 내용과 상충하며, 원본의 구체적인 세부사항을 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본에서 제공된 정보와 상반되는 내용을 포함하고 있습니다. 예를 들어, 원본 텍스트는 특정 주제와 준비물에 대한 세부 정보를 제공하는 반면, 생성된 응답은 일반적인 실기 시험의 예시를 제시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보가 포함되어 있지 않으며, 원본 텍스트의 주요 주제와 관련이 적습니다. 그러나 실기 시험에 대한 일반적인 정보는 포함되어 있어 일부 관련성을 가질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 실기 시험의 예시를 나열하고 있지만, 이들 간의 논리적 연결이 부족합니다. 각 항목이 독립적으로 나열되어 있어 일관된 흐름이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 원본에서 제공된 구체적인 정보와 일치하지 않습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보가 아닌 일반적인 실기 시험의 예시를 제공하고 있어 의미적으로 적절하지 않습니다. 그러나 일부 내용은 디자인 관련이므로 점수를 부여했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부적절성으로 인해 전체적인 이해도는 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.6741172466959779</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 디자인조형학과의 실기시험 내용이 포함되어 있지 않습니다. 디자인조형학과는 일반적으로 다음과 같은 실기 시험을 진행할 수 있습니다:
+1. 그림 그리기:
+   - 색연필, 물감 등 다양한 도구로 작품 제작
+   - 주제에 따른 자유롭게 표현
+2. 캐릭터 디자인:
+   - 동물, 인물 등의 캐릭터를 창조적으로 설계
+3. 포트폴리오 제출:
+   - 과거 작업 사진과 설명서
+   - 개인적인 작품들 모음
+4. 아이디어 표현:
+   - 주제에 따른 자유롭게 생각하고 그림으로 표현
+5. 색채 이론 테스트:
+   - 색상 조합, 배치 등 색채 원리를 이해하는 문제
+6. 디자인 요소 이해:
+   - 균형, 반복, 대비 등의 디자인 원리에 대한 설명 및 적용
+하지만 정확한 실기 시험 내용은 동의대학교 입학처나 해당 학과 홈페이지를 통해 확인해야 합니다. 각 년도마다 요구사항이 변동될 수 있으므로 최신 정보를 참조하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다.'라는 문장을 포함하고 있는데, 이는 원본 텍스트에 명시된 '기초디자인'과 '사고의 전환'이라는 실기 종목과 일치하지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 실기 종목과 준비물, 실기 주제에 대한 정보와 일치하지 않으며, '기초디자인'과 '사고의 전환'이라는 두 가지 실기 종목을 언급하지 않고 있습니다. 이로 인해 일관성 점수도 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기 종목과 준비물에 대한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 내용과는 다소 차이가 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 잘 정리되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 의미의 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있어 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.7855326137139091</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다.
+- **준비물**:
+  - 볼펜
+  - 연필
+  - 색연필
+  - 수채물감 등 표현에 필요한 도구
+- **실기주제**: 
+  - 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+  - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+- **화지크기**: 켄트지 3절
+- **시간**: 5시간</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9353687684379735</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+1. 배드민턴(남):
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어팀 소속으로 출전한 대회)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남):
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전
+이러한 대회들 중 일부는 국제적인 대회도 포함되어 있으며, 주니어팀 소속으로 출전한 대회만 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 내용을 잘 반영하고 있지만, "그림으로 표현해야 합니다"라는 문구는 원본 텍스트에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있으나, "그림으로 표현해야 합니다"라는 추가 정보가 원본 텍스트에 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 원본 텍스트와의 약간의 차이로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가된 정보로 인해 약간의 부정확성이 존재합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 다소 다르기 때문에 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 약간의 어색함이 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7904749369510117</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이 주제들 중에서 각각 1개씩 선택하여 연결된 주제를 만들고 그림으로 표현해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 점수가 반영된다고 주장하고 있지만, 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 반대되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있어 일관성이 전혀 없습니다. 원문에서 출결 점수가 반영되지 않는다고 했으나, 생성된 응답에서는 반영된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 주제와도 맞지 않습니다. 원문에서 다루고 있는 내용과는 전혀 다른 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 내용이 원문과 상반되어 있어 전체적인 흐름이 매끄럽지 않습니다. 그러나 문장 구조는 비교적 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 논리적 연결이 없기 때문에 일관된 구조를 갖추고 있지 않습니다. 원문과의 관계가 전혀 없기 때문에 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 전혀 없고, 잘못된 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있는 부분이 있지만, 내용이 원문과 상반되어 있어 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.4253254940065122</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>东义大学的学生部考试类型中确实考虑了出勤记录分数。根据表格内容，对于学生部考试类型的各个科目，都有一个包含出勤记录比例的部分。
+具体来说，在“나군 학생부교과(농어촌학생전형) - 정원외 동점자 처리기준”表中，有如下信息：
+```
+출결상황, 창의적체험활동상황, 교과학습발달상황(세부능력 및 특기사항 포함), 행동특성 및 종합의견
+```
+这表明出勤记录（出결）是学生部考试成绩评价的一个组成部分。
+另外，在“나군 학생부교과(농어촌학생전형) - 정원외 서류평가 영역별 세부 평가 기준”表中，也提到了出勤记录的重要性：
+```
+출결상황, 창의적체험활동상황, 교과학습발달상황(세부능力及特殊能力包含), 行为特性和综合意见
+```
+综上所述，在东义大学的学生部考试类型中，确实会考虑出勤记录分数。</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원이 9명이라고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 17명을 모집한다고 명시되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 모집 인원에 대한 정보가 서로 다릅니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련이 있으며, 국어국문학과의 모집 전형에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "일반학생전형"이라는 표현이 붙어 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 1
+   - 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 정보의 정확성과 일관성이 부족하지만, 주제와 관련된 내용이 포함되어 있어 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제에 적합한 의미를 전달하고 있으나, 잘못된 정보로 인해 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 이해할 수 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.791326284764408</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서는 가군 일반학생전형으로 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원본 텍스트의 주요 사실을 잘 반영하고 있습니다. 그러나 "교직"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, "교직"이라는 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에는 이 정보가 포함되어 있지 않기 때문에 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 모집 인원에 직접적으로 관련이 있으며, 관련 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "교직"이라는 정보가 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원에 대한 정확한 정보를 제공하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, "교직"이라는 추가 정보가 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6137073324990187</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7634599303085337</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생전형으로 22명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 정확하게 나열하고 있으며, 추가적으로 점수의 변환값이 매년 조정될 수 있다는 정보를 제공하고 있습니다. 그러나 이 정보는 원본 텍스트에 포함되어 있지 않으므로 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 점수와 등급의 일치성도 높습니다. 다만, 추가된 정보가 원본과의 일관성을 약간 해칠 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 영어 등급에 따른 점수를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 "以下是按照韩语编写的回答："라는 문구는 한국어로 작성된 응답에 불필요한 부분입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 점수와 관련된 정보가 명확하게 전달됩니다. 그러나 처음 부분의 중국어 문구가 흐름을 약간 방해합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 점수와 등급에 대한 정보는 정확하지만, 추가된 변환값 조정에 대한 언급은 원본 텍스트에 포함되어 있지 않아 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 높은 품질을 보여주지만, 일부 불필요한 정보와 문구가 포함되어 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 중국어 문구는 맥락에 맞지 않아 다소 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 처음 부분의 중국어 문구가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.7758159803537794</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语编写的回答：
+수능 영어 등급에 따른 점수는 다음과 같습니다:
+1등급 : 139점
+2등급 : 131점
+3등급 : 123점
+4등급 : 115점
+5등급 : 107점
+6등급 : 99점
+7등급 : 91점
+8등급 : 83점
+9등급 : 75점
+이 점수들은 등급별로 대략적인 변환값이며, 실제 변환은 공정성을 위해 매년 조정될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 지원 자격에 대한 설명도 일치합니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장 구조가 다소 복잡할 수 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따릅니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 다소 복잡할 수 있어 완전한 명확성에는 다소 부족할 수 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.6424188974734262</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>依据提供的信息，艺术高中（예술고）的学生不能申请“나군 학생부교과(농어촌학생전형)"。具体来说，在“나군 학生部教科(农渔村学生型)”的申请资格表中明确指出：
+"지원자격 : 국내 고교 졸업(예정)자로서 6년과정, 12년과정 2개 유형중 1개의 유형에 해당하는 자
+...
+艺术高中（예술고）、体育高中（체육고）、特殊目的高中（특수목적고）出身者不能申请。"
+因此，艺术高中的学生不符合该类型招生的申请资格。</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 4등급의 여자 제자리 멀리뛰기 기록을 226cm 이상으로 잘못 제시하고 있으며, 배점도 300점으로 잘못 기재되어 있습니다. 원본 텍스트에 따르면 4등급 기록은 218~221cm이고 배점은 275점입니다. 따라서 여러 가지 사실이 잘못되었습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 기록과 배점 모두 원본과 일치하지 않으며, 이는 일관성이 전혀 없음을 나타냅니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 레저스포츠학과 여자 제자리 멀리뛰기에 대한 질문에 적절하게 응답하고 있습니다. 그러나 제공된 정보가 잘못되었기 때문에 사실적 측면에서는 문제가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 잘못된 정보로 인해 내용의 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 잘못된 정보로 인해 전체적인 신뢰성이 저하됩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 기록과 배점 모두 잘못 기재되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 일부 차원에서 양호한 점수를 받지만, 사실성과 정확성에서 심각한 결함이 있어 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8057810804978423</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급의 여자 제자리 멀리뛰기 기록은 226cm 이상이며, 이 기록에 대한 배점은 300점입니다.
+참조되는 표는 다음과 같습니다:
+[표 내용]
+```
+1 / { 280이상 /  230 이상 /  350 / } /
+2 / { 276~279 /  226~229 /  325 / } /
+3 / { 272～275 /  222~225 /  300 / } /
+4 / { 268～271 /  218~217 /  275 / } /
+5 / { 264～267 /  214~217 /  250 / } /
+6 / { 260～263 /  210~213 /  225 / } /
+7 / { 256～259 /  206~209 /  200 / } /
+8 / { 252～255 /  202~205 /  175 / } /
+9 / { 248～251 /  198~201 /  150 / } /
+10 / { 244～247 /  194~197 /  125 / } /
+11 / { 240～243 /  190~193 /  100 / } /
+12 / { 236~239 /  186~189 /  75 / } /
+13 / { 232~235 /  182~185 /  50 / } /
+14 / { 228~231 /  178~181 /  25 / } /
+15 / { 227이하 /  177이하 /  0 / } /
+```
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록은 268cm ~ 271cm이며, 이에 대한 배점은 300점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 "실기/실적(경기실적우수자전형) 전형요소 반영비율"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 정보가 원본 텍스트와 일관되지 않아서 일관성이 떨어집니다. 특히, 전형요소 반영비율에 대한 언급은 원본 텍스트에 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 출결 반영 비율에 직접적으로 관련이 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 중복된 표현이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 출결 비율에 대한 정보가 잘 연결되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율이 12%라는 정보는 정확하지만, 추가된 정보가 원본 텍스트에 포함되어 있지 않아 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않아서 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.6936770289907676</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>12%입니다.
+동의대학교 경기지도학과의 실기/실적(경기실적우수자전형) 전형요소 반영비율에서 출결의 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용을 보완하는 형태로 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 물리치료학과의 모집 인원에 직접적으로 관련된 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.7126398315433584</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 물리치료학과의 모집인원으로 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정인 '2024. 01. 17.(수)'를 정확하게 반영하고 있습니다. 그러나 대기실 및 입실시간 안내와 관련된 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 추가적인 정보로 간주할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하지만, 추가된 정보(대기실 및 입실시간 안내)는 원본 텍스트와의 일관성을 떨어뜨릴 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기고사 일정에 대한 정보는 정확하지만, 추가된 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수는 완벽하지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있어 중간 정도의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4698481944497968</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 다음과 같은 일정에 진행됩니다:
+- **일정**: 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+이 정보는 표 "전형일정"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 "정확한 수능 최저점은 제공되지 않았으며"라는 부분은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 점을 유지하고 있습니다. 그러나 "정확한 수능 최저점은 제공되지 않았으며"라는 문구는 약간의 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보가 체계적으로 제시되고 있습니다. 다만, 일부 문장은 더 명확하게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하지만, "정확한 수능 최저점은 제공되지 않았으며"라는 부분이 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4299352748633369</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보는 제공된 데이터에서 확인할 수 없습니다. 하지만, 수능 최저기준이 반영되지 않은 모집단위들에 대한 정보가 포함되어 있습니다.
+응용화학과는 "공과대학 / 환경공학과, 화학공학과, 응용화학과" 모집단위에 포함되어 있으며, 이 모집단위의 수능 최저기준은 다음과 같습니다:
+- 모집 인원: 101명
+- 지원 인원: 122명
+- 경쟁률: 1.21대 1
+- 전형 요소 반영 비율: { 0 /  0 /  0 /  0 /  0 /  100 / }
+- 수능 최저기준 없음
+따라서 응용화학과의 경우, 정확한 수능 최저점은 제공되지 않았으며, 해당 모집단위에 포함되어 있는 여러 과목들의 수능 성적을 종합적으로 고려하여 선발하는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 일부 신설 학과를 잘못 기재하고 있으며, '부동산자산경역학부'는 원본 텍스트에 포함되어 있지 않습니다. 또한, '미래융합대학'이라는 명칭도 원본에 나타나지 않으며, 주요 신설 학과에 대한 정보가 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 특히, '미래융합대학'과 '부동산자산경역학부'는 원본에 없는 내용입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있으나, 원본 텍스트와 관련 없는 추가 정보를 포함하고 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 논리적인 흐름이 부족하여 일관된 구조를 갖추지 못하고 있습니다. 특히, 주요 신설 학과에 대한 언급이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 신설 학과의 명칭과 구성이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 잘못된 정보가 포함되어 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.7070434957702778</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과는 다음과 같습니다:
+1. 미래융합대학 - 라이프융합학부 (스마트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 미래융합대학 - 부동산자산경역학부 (부동산투자학, 부동산개발경영학)
+이 외에도 일부 학과가 교직 과정을 신설하였음을 알 수 있습니다:
+- 인문사회과학대학 - 심리학과 (신설)
+- 상경대학 - 스마트항만물류학과 (신설)
+- 상경대학 - 창업투자경영학과 (신설)
+그러나 주요 신설 학과는 위에서 언급한 두 학부입니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.7880201592168572</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 : 70%
+- 면접 : 30%
+이 정보는 [나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 전형요소 반영비율] 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위와 가산점 부여 조건을 정확하게 반영하고 있습니다. 그러나 의료·보건·생활대학이 언급되지 않아 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 공과대학과 ICT융합공과대학에 대한 정보를 제공하지만, 의료·보건·생활대학을 누락하여 일관성이 떨어집니다. 전체 모집단위에 대한 언급이 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점 적용에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 주요 내용이 잘 반영되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 의료·보건·생활대학에 대한 언급이 없어서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 가산점의 부여 조건을 정확하게 설명하고 있지만, 모집단위의 일부가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 문맥에 적합합니다. 그러나 일부 정보가 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.7889939371750695</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학, ICT융합공과대학 모집단위에서 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여합니다.
+이 정보는 "가산점" 데이터 항목에서 확인할 수 있습니다:
+[표 제목 : 가산점]
+아래부터는 가산점 표 내용이다.
+```
+모집단위 / 수능 가산점 
+의료·보건·생활, 공과, ICT융합공과대학 모집단위 / 수학(미적분 or 기하)응시자는 수학 취득 표준점수의 10%를 가산점으로 부여
+```
+따라서 동의대학교에서는 공과대학과 ICT융합공과대학에서 해당 가산점을 적용합니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충하는 내용을 포함하고 있습니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 과목별로 비율이 나열되어 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원문은 수능 성적을 100% 반영한다고 했지만, 생성된 응답은 각 과목의 비율을 제시하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 원문의 핵심 정보인 "100% 반영"이라는 점을 간과하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 전체적인 맥락이 흐트러집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 각 과목의 비율을 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실관계가 틀립니다. 원문은 수능 성적을 100% 반영한다고 했지만, 생성된 응답은 비율을 제시하여 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 원문과의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 다르게 해석될 수 있는 내용을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.6825228339713946</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. 국어(화법과작문 or 언어와매체) : 25%
+2. 수학(확률과통계 or 미적분 or 기하) : 25%
+3. 영어 : 25%
+4. 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목) : 각 25%
+특히, 한의예과의 경우 수학은 미적분/기하 또는 확률과통계를 선택할 수 있으며, 이에 따라 반영 비율이 달라집니다.
+또한, 한의예과 수학(미적분/기하) 응시자의 경우 수학 취득 표준점수의 10%가 가산점으로 부여됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기고사 날짜와 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기고사 날짜에 대한 정보가 충돌 없이 제공됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기고사 날짜에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.7303577654590367</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 가군 실기고사 날짜는 다음과 같습니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**입니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과가 제외된다고 언급하고 있지만, 경기지도학과가 제외된다는 사실을 누락했습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 응답에서 한의예과와 디자인조형학과, 체육학과가 제외된다고 하였으나, 원문에서는 경기지도학과도 제외된다고 명시되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 직접적으로 관련이 있으며, 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 다소 중복되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답에서 경기지도학과가 제외된다는 사실을 누락하여 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 큰 결함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 원문과 잘 맞아떨어지지만, 누락된 정보로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 내용이 중복되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.7906663338003755</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 "한의예과"와 "디자인조형학과, 체육학과"가 제외됩니다.
+이 점을 확인하기 위해 표를 살펴보면:
+- "나군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 한의예과는 포함되어 있지만, 디자인조형학과와 체육학과는 제외되었습니다.
+따라서 정확한 답변은:
+- 한의예과
+- 디자인조형학과 
+- 체육학과</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다."라고 명시하고 있지만, 원본 텍스트에서는 "수능 최저기준이 적용되지 않습니다."라고 명확히 언급하고 있습니다. 따라서, 생성된 응답은 원본 텍스트와 정반대의 내용을 담고 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 수능 최저기준이 적용되지 않는다고 명시하고 있는데, 생성된 응답은 적용된다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 다군 전형과 관련된 추가 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제인 수능 최저기준의 적용 여부와는 상관없는 내용이 포함되어 있습니다. 따라서 관련성은 있지만, 주제와의 직접적인 연관성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 논리적 연결이 부족합니다. 원본 텍스트의 주제를 명확히 반영하지 않기 때문에 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 정반대의 내용을 담고 있어 정확성이 매우 낮습니다. 수능 최저기준의 적용 여부에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 크기 때문에 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 상충하여 혼란을 줄 수 있습니다. 따라서 이해 가능성은 있지만, 명확하지는 않습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.7793869064651927</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다.
+다군 수능(일반학생전형) 관련 내용을 확인해보면:
+- [표 속성]에 "수능 반영영역 및 가산점" 항목에서:
+  - 공과대학, ICT융합공과대학 모집단위는 수학(미적분 또는 기하) 응시자에게만 10%의 가산점이 주어지지만, 최저기준은 적용되지 않습니다.
+- 그러나 [표 제목: 다군 수능(일반학생전형) 동점자 처리기준]에서는:
+  - 동점자 처리 기준을 설명하면서 "상기 동점자 처리기준에도 불구하고 최저합격선에서 동점자가 발생할 경우 그 인원을 모두 합격 처리하고, 모집인원을 초과하는 인원만큼 차차년도 모집에서 감축하여 모집합니다."라고 명시되어 있습니다.
+따라서, 다군 전형에서도 수능 최저기준은 적용되며, 이 기준에 미달한 경우에도 동점자 처리 등의 절차를 거쳐 합격이 결정될 수 있다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 및 명칭 변경에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 학과의 분리 및 명칭 변경이 정확하게 전달되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있어 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8589330158854218</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+이 외에도 일부 학과는 학부 통합 또는 명칭 변경을 통해 변화하였습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트의 내용을 충실히 반영하고 있습니다. 추가된 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 마감일에 대한 정보가 일치합니다. 추가된 내용도 원본의 맥락을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 원서접수 마감일에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 사실성, 일관성, 관련성, 정확성 모두 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.8148173777489366</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 2024년 1월 6일(토) 18시 정각입니다. 이 시간까지 원서접수 사이트 접속이 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 구체적인 내용을 잘못 전달하고 있으며, 원본 텍스트의 주요 내용을 누락하고 있습니다. 예를 들어, '학생부종합(성인학습자전형)'의 세부 사항이 잘못 설명되었고, '나군 학생부교과(농어촌학생전형)'는 원본 텍스트에 없는 전형입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트의 전형 요소와 배점 변화에 대한 정보가 왜곡되어 있으며, 새로운 전형이 추가되어 원본과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 전형 요소 변화에 대한 질문에 어느 정도 관련이 있지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다. 새로운 전형이 추가되어 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 약해져서 논리적인 일관성이 부족합니다. 특히 새로운 전형이 추가되면서 흐름이 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 설명되고 있으며, 전형의 세부 사항이 잘못 전달되고 있습니다. 특히, 전형의 배점과 지원 자격에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다. 전반적으로 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 어느 정도 적절하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 새로운 전형의 추가로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란스러울 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7180126982925443</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+   - 동점자 처리기준이 추가되었습니다.
+2. **나군 실기/실적(경기실적우수자전형)**:
+   - 전형요소 반영비율이 변경되었습니다.
+   - 동점자 처리기준이 추가되었습니다.
+3. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 모집단위 및 모집인원이 변경되었습니다.
+   - 지원자격이 추가로 설명되었습니다.
+4. **나군 학생부교과(농어촌학생전형)**:
+   - 정원외 모집단위 및 모집인원이 변경되었습니다.
+   - 지원자격이 추가로 설명되었습니다.
+   - 제출서류가 상세히 설명되었습니다.
+5. **나군 실기/실적(경기실적우수자전형) 동점자 처리기준**:
+   - 동점자 처리 기준이 추가되었습니다.
+6. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 동점자 처리기준**:
+   - 동점자 처리 기준이 추가되었습니다.
+이러한 변화들은 각 전형의 평가 방식과 지원 자격, 서류 제출 요건 등을 포함하여 전반적으로 더 세밀화되고 구체화되었다는 점을 반영하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.8088573954060577</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "나군 실기/실적 위주 전형요소 반영비율" 표에서 확인할 수 있으며, 해당 표에 따르면:
+가군 실기/실적 (일반학생전형) 레저스포츠학과, 태권도학과의 경우:
+- 학생부교과: 0%
+- 출결: 0%
+- 서류: 0%
+- 면접: 0%
+- 실기: 70%
+- 수능: 30%
+따라서 가군 실기/실적 전형에서 실기 부분의 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 라이프융합학부의 세부 전공에 대한 정보를 정확하게 전달하고 있습니다. 그러나 추가된 모집 전형에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 전공 목록과 일치하지만, 추가된 모집 전형에 대한 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 라이프융합학부의 세부 전공에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 중복 표현이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전공 목록과 추가 정보가 잘 연결되어 있으며, 전반적으로 논리적인 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하지만, 추가된 모집 전형 정보는 원본 텍스트에 포함되어 있지 않아 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 일부 정보의 추가로 인해 다차원적인 품질이 약간 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 맥락에 맞지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8566841886239347</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부의 세부 전공은 다음과 같습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 주로 평생학습자전형, 성인학습자전형, 재직자전형 등 다양한 전형으로 모집됩니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '태권도학과'에 대한 언급이 없고 오직 '체육학과'와 '레저스포츠학과'만 언급되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, '태권도학과'라는 새로운 정보를 추가하여 일관성이 떨어집니다. 원본 텍스트의 정보와 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 원본 텍스트에 포함되지 않은 학과를 언급하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, '태권도학과'의 언급이 불필요하여 약간의 흐름이 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기고사에 참여해야 하는 학과를 명확히 제시하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수가 낮습니다. 원본 텍스트의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 점수가 낮습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 불일치로 인해 완전한 적합성은 없습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.6559265759347348</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 레저스포츠학과와 태권도학과만 실기/실적 전형으로 모집하며, 이들 학과는 실기고사를 통해 평가받습니다.
+따라서, 실기고사에 참여해야 하는 학과는:
+1. 레저스포츠학과
+2. 태권도학과
+입니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 지원 가능한 학과 목록에서 '레저스포츠학과', '태권도학과', '경기지도학과'를 누락하고, '디자인조형학과'와 '체육학과'만 언급하고 있습니다. 또한, '디자인조형학과'에 대한 세부 전공을 추가했지만, 이는 원본 텍스트에 포함되지 않은 정보입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 지원 가능한 학과 목록에서 여러 학과를 누락했습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보를 제공하고 있으나, 원본 텍스트에서 언급된 모든 학과를 포함하지 않아 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성 점수가 낮습니다. 지원 가능한 학과 목록에서 여러 학과를 누락했습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트와의 불일치로 인해 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.633601167250835</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "나군 실기/실적(일반학생전형)"은 다음과 같은 학과에서 모집됩니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+이 두 학과만 실기/실적 위주 전형으로 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록과 학부의 목표에 대한 설명이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공과 학부의 목표에 대한 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 학부의 전공과 목표에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전공에 대한 설명이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.7485897063447092</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학  
+3. 라이프생활문화학
+이 학부는 미래 융합형 인재 양성을 목표로, 다양한 산업과 연계된 실용적이고 창의적인 전공들을 개설하였습니다.
+- 스타트업창업투자학은 창업 및 투자 분야에 대한 지식을 습득하고 창업가로서 필요한 역량을 기르는 것을 목표로 합니다.
+- 뷰티비즈니스학은 뷰티 산업의 트렌드와 비즈니스 모델 등을 연구하며, 관련 업계에서 경쟁력을 갖춘 전문인才能够回答这个问题：
+ 동义大学的Life Integration学院提供以下专业：
+1. 创业投资学
+2. 美容商业学  
+3. 生活文化学
+该学院旨在培养跨学科的人才，开设了与多个行业相关的实用性和创新性课程。创业投资学专注于创业和投资领域的知识学习以及作为创业者所需的能力；美容商业学研究美容行业的趋势和商业模式等，在相关行业中具备竞争力的专业人才；生活文化学则探讨生活方式的文化方面。
+这些专业的设置反映了对未来融合型人才的需求，旨在培养具有跨学科知识和技能的学生。</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시된 원문과 상반된 내용을 담고 있습니다. 원문에서는 지원이 가능하다고 명시되어 있으나, 생성된 응답에서는 지원이 불가능하다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서 지원 가능하다고 한 내용을 생성된 응답에서는 지원 불가능하다고 하여 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성에 문제가 있어 전반적인 신뢰성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련된 내용을 다루고 있으나, 잘못된 정보로 인해 적절하지 않은 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 내용이 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.6885286320007409</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 일반학생전형에서 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 학생은 지원이 불가능합니다.
+참조되는 표는 다음과 같습니다:
+[표 제목 : 고교유형별 지원자격]
+```
+가군 / 수능 (일반학생전형) / [ 지원 가능 / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 가능 / 지원 가능 / ] /
+가군 / 실기/실적 (일반학생전형) / [ 지원 가능 / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 가능 / 지원 가능 / ] /
+나군 / 수능 (일반학생전형) / [ 지원 가능 / 지원 가능 / { 지원 불가능 /  지원 불가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 불가능 / 지원 불가능 / ] /
+나군 / 실기/실적 (일반학생전형) / [ 지원 가능 / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 가능 / 지원 가능 / ] /
+나군 / 실기/실적 (경기실적우수자전형) / [ 지원 가능 / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 불가능 / 지원 불가능 / ] /
+나군 / 학생부교과(농어촌학생전형) / [ 지원 가능 / 지원 가능 / { 지원 불가능 /  지원 불가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 불가능 / 지원 불가능 / ] /
+나군 / 학생부종합(평생학습자전형) / [ 지원 가능 / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 가능 / 지원 가능 / ] /
+나군 / 학생부종합(성인학습자(정원내)전형) / [ 지원 가능 / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 가능 / 지원 가능 / ] /
+나군 / 학생부종합(성인학습자(정원외)전형) / [ 지원 가능 / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 가능 / 지원 가능 / ] /
+나군 / 학생부종합(재직자전형) / [ 특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 해당 / 특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 해당 / { 특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 해당 /  특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 해당 / 지원 가능 / } / { 지원 가능 /  특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 해당 / } / 지원 불가능 / { 특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 해당 / 지원 불가능 / 지원 불가능 / } / 지원 불가능 / 지원 불가능 / ] /
+나군 / 학생부종합(조기취업형계약학과전형) / [ 지원 가능 / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 가능 / 지원 가능 / ] /
+다군 / 수능(일반학생전형) / [ 지원 가능 / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 가능 / 지원 가능 / ] /
+```
+특수목적고등학교는 지원이 불가능한 것으로 나타나 있습니다.</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 건축공학과가 가장 많이 모집한다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 주제에 대한 정확한 답변을 제공하지 못합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관성이 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.6932159339809189</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해 나군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원 표를 분석하였습니다.
+표에 따르면, 가장 많은 모집 인원을 보이는 학과는 다음과 같습니다:
+1. **공과대학 / 공학 / 건축공학과 - 교직** : 39명
+2. **공과대학 / 공학 / 신소재공학과** : 32명
+3. **인문사회과학대학 / 인문사회 / 아동학과** : 10명
+이 중에서 가장 많은 모집 인원을 보이는 학과는 **공과대학의 건축공학과 - 교직**으로, 총 39명을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **건축공학과 - 교직**입니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 정확하게 설명하고 있으며, 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다는 사실을 잘 반영하고 있습니다. 그러나, '농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.'라는 부분이 누락되어 있어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 제공하고 있습니다. 그러나, 원문에서 언급된 특정 학교 유형에 대한 세부사항이 누락되어 있어 완전한 일관성을 보이지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 깊으며, 동의대 학생부교과 농어촌학생전형에 대한 지원 가능성에 대해 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장 구조가 다소 복잡하여 읽기 어려운 부분이 있습니다. 하지만 전반적으로 이해하기 쉬운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 세부사항이 누락되어 있어 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 특정 학교 유형에 대한 세부사항이 누락되어 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 세부사항의 누락으로 인해 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, 특정 세부사항이 누락되어 있어 완전한 의미 전달이 이루어지지 않았습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장 구조가 복잡하여 약간의 혼란을 줄 수 있습니다. 그러나 전반적으로 명확한 표현을 사용하고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.5516026339818286</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你的问题是关于是否可以作为特殊目的高中学生申请동义大学的学生部课程。根据提供的信息，特殊目的高中（包括科学高中、国际高中、外语高中）的学生不符合农渔村学生专项招生的资格。
+具体来说，在“나군 학생부교과(농어촌학생전형) - 정원외 지원자격”表格中提到：
+- 特殊目的高中（如科学高中、国际高中、外国语高中等）的学生是不可以申请的。
+因此，作为特殊目的高中学生，你不能通过农渔村学生专项招生途径申请동义大学。你需要寻找其他适合你的招生类型进行申请。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어공학부의 합격자 평균 성적에 대한 정보를 제공하지 않으며, 잘못된 정보와 관련된 데이터(ICT융합공과대학 소프트웨어공학부의 성적)를 포함하고 있습니다. 원본 텍스트와 상충되는 내용이 많아 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 다른 학부의 성적 정보를 제공하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 원본 텍스트의 요청에 대한 직접적인 답변이 아니므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 주제와 연결되지 않아 논리적인 흐름이 약간 부족합니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서 제공되지 않은 성적 정보를 제시하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 적절하지 않습니다. 원본 텍스트의 요청에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 정보의 관련성과 일관성이 부족하여 전체적으로 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.6163414271847596</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적 정보는 제공된 표에서 직접 확인할 수 없습니다. 가장 가까운 관련 데이터는 ICT융합공과대학 소프트웨어공학부의 합격자 평균 성적입니다.
+ICT융합공과대학 소프트웨어공학부에 대한 표에서는 다음과 같은 정보가 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 330.11 / 9.08 }
+- 영어 등급: { 3.30 / 0.82 }
+- 수능 4개 영역 등급: { 4.12 / 0.32 }
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: { 450.71 / 10.11 }
+이 중에서 가장 가까운 것은 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합" 이며, 평균은 330.11입니다.
+만약 소프트웨어공학부의 정확한 데이터를 필요로 한다면, 해당 부서에서 제공하는 공식 정보나 추가적인 통계 자료를 확인해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 성적을 제시하고 있습니다. 이는 명백한 사실 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 평균 성적을 제공하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 정보가 없다고 하였고, 생성된 응답은 잘못된 정보를 제공하고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실적으로 부정확합니다. 따라서 정확성 점수는 최하입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5938880282113728</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 평균 성적은 다음과 같습니다:
+수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 **317.87**입니다.
+이 값은 "전형일정" 표에서 "최초 합격자 발표 및 등록" 항목에 제시된 소프트웨어공학부의 데이터를 기반으로 추출한 것입니다:
+```
+ICT융합공과대학 / 소프트웨어공학부 / 30 / 146 / 4.87 / 63 / { 317.87 /  7.35 / } / { 3.77 /  0.67 / } / { 4.49 /  0.30 / } / { 434.70 /  8.01 / } /
+```
+따라서, 최초합격자들의 평균 수능 성적은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 주요 정보를 포함하고 있으며, 날짜와 시간도 정확하게 반영하고 있습니다. 그러나 '등록'에 대한 정보가 추가되어 있어 원본 텍스트와 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 대부분 포함하고 있지만, '등록' 관련 세부사항이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에는 등록에 대한 언급이 없기 때문에 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 모든 정보를 포함하고 있으며, 합격자 발표 일정에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 단계가 명확하게 구분되어 있습니다. 그러나 '등록' 관련 정보가 추가되어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 '등록' 정보로 인해 정확성이 약간 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 약간의 의미 변형이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.7992015910652311</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정은 다음과 같습니다:
+1. 최초 합격자 발표 및 등록:
+   - 날짜: 2024. 02. 02.(금) 14:00
+   - 방법: 홈페이지에서 개별 조회
+2. 충원 합격자 발표 및 등록 (1차):
+   - 날짜: 
+     - 1차 발표: 2024. 02. 14.(수) 09:00
+     - 1차 등록: 2024. 02. 14.(수) 09:00~16:00
+3. 충원 합격자 발표 및 등록 (2차):
+   - 날짜:
+     - 2차 발표: 2024. 02. 15.(목) 09:00
+     - 2차 등록: 2024. 02. 15.(목) 09:00~16:00
+4. 충원 합격자 발표 및 등록 (3차 이후):
+   - 날짜:
+     - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 3차 이후 등록: 개별 전화 통보 시 안내
+각 단계에서 합격자는 홈페이지를 통해 개별적으로 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 받을 수 있습니다. 등록장소는 학교 지정은행으로, 등록금 납부는 지정 기일 내에 완료해야 합니다.
+주의사항:
+- 최초 및 충원합격자는 전형일정에 명시된 일정을 참고하여 등록금을 납부해야 합니다.
+- 지정 기일 내에 등록하지 않는 경우 입학을 포기한 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접일정에 대한 명확한 날짜를 제공하는 원본 텍스트의 내용을 부정확하게 해석하고 있습니다. 원본 텍스트는 면접일이 2024년 1월 20일이라고 명확히 언급하고 있지만, 생성된 응답은 이 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 면접일정에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 상충합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접일정에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련된 정보도 부족합니다. 그러나 면접과 관련된 다른 정보는 포함되어 있어 일부 관련성이 있지만, 주제와의 연관성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 면접일정에 대한 명확한 정보가 없기 때문에 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 잘못 전달하고 있으며, 면접일정에 대한 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 관계가 매우 약합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 면접일정에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성 부족으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.4198302007703365</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 면접일시에 대한 명확한 날짜와 시간은 언급되어 있지 않습니다. 
+면접과 관련된 내용은 다음과 같습니다:
+- 나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 방법 표에서:
+  "면접시간 / 1인당 10분 이내 /"
+- 그러나 실제 면접일시와 장소 등은 표에 포함되어 있지 않습니다.
+- 지원자 유의사항 (인터넷 원서접수 유의사항)에서는 다음과 같이 언급되어 있습니다:
+  "전형료 결제가 완료된 후에 수험번호가 부여되며, 원서접수 취소 및 원서 내용 변경이 불가하므로 신중하게 확인 후 접수해주시기 바랍니다."
+따라서 면접일시와 장소 등 구체적인 정보는 본문의 다른 부분이나 별도의 안내를 통해 제공될 것으로 보입니다. 지원자는 입학관리팀 또는 대학 홈페이지에서 추가 안내를 확인하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실과 완전히 상반된 내용을 담고 있습니다. 응답은 여러 과목의 시험을 요구한다고 주장하고 있으며, 이는 원본 텍스트와 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 여러 과목의 시험을 요구한다고 주장하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 최저학력 기준이 없다는 내용을 다루고 있지만, 생성된 응답은 전혀 다른 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 최저학력 기준이 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않습니다. 원본의 내용을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.3596641475791152</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>依据提供的信息，韩医学科（한의예과）的最低学力基准包括：
+1. 必须参加数学考试：
+   - 数学(概率与统计)或
+   - 数学(微积分)或
+   - 数学(几何)
+2. 国语 (语文) 是必考科目
+3. 英语 考试成绩将根据等级转换为相应的分数
+4. 社会研究（社会科）或 科学（科学科）中的两个科目也将被考虑，但具体细节未在给定的信息中明确说明。
+5. 朝鲜语 (韩国语) 必须参加考试
+总结来说，韩医学科要求考生必须参加国语、数学（选择其中一种）、英语和朝鲜语的考试。数学有三种形式可以选择，而英语成绩将根据等级转换为分数。社会研究或科学中的两个科目也将被考虑在内。</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에 대한 정보를 제공하고 있으며, 동국대학교에 대한 내용으로 전환되었습니다. 이는 원본 텍스트와 관련이 없고, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 동국대학교에 대한 정보로 바뀌어 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에 대한 질문에 대한 답변이 아니라 동국대학교에 대한 정보를 제공하고 있어 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에 대한 질문에 대한 정확한 정보를 제공하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 부적절함으로 인해 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.6437703938337465</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교 정시모집에서는 다음과 같은 모집단위에 대해 수능 최저학력 기준을 적용하지 않습니다:
+1. 가군 수능(일반학생전형)
+2. 나군 수능(일반학생전형) 
+3. 다군 수능(일반학생전형)
+즉, 표에서 보듯이 "수능최저기준 없음"으로 나타나는 모든 모집단위에 대해 수능 최저학력 기준은 적용되지 않습니다.
+이는 전형요소 반영비율 표에서도 확인할 수 있습니다. 해당 표의 "수능최저기준" 열에는 모두 "없음"이 기재되어 있습니다.
+따라서, 동국대학교 2024학년도 정시모집에서 대부분의 모집단위는 수능 최저학력 기준을 요구하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 일부 날짜와 시간을 잘못 전달하고 있습니다. 특히, 2차 충원합격자 발표 시간이 잘못 기재되어 있으며, 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 특히, 2차 발표 시간과 관련된 정보가 원본과 다릅니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보가 포함되어 있어 완전한 관련성을 가지지 못합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 중국어로 되어 있어 한국어 사용자에게는 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 특히, 발표 일정의 순서가 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히, 발표 일정과 관련된 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 불완전합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보와 중국어 사용으로 인해 일부 사용자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.6039924757957966</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합格候选人的公布日期是从2024年2月15日(星期四)开始到2024年2月20日(星期二)。具体来说：
+- 第一次补录合格者公布：2024年2月15日(星期四)上午9:00
+- 第二次补录合格者公布：2024年2月15日(星期四)下午16:00
+- 第三次及以后补录合格者公布：2024年2月15日(星期四)晚上19:00至2024年2月20日(星期二)晚上18时止
+这些日期和时间是通过“入学网站”进行个人查询的。所有申请人必须在规定的时间内上网查看自己的录取状态，因为学校不会单独通知补录合格者。</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 포함하고 있지만, 추가적인 내용이 포함되어 있어 원본 텍스트의 핵심 정보를 왜곡하고 있습니다. 특히, 등록 관련 내용은 원본 텍스트에 없으므로 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 일정과는 일치하지만, 추가된 내용이 원본과 일관되지 않으며, 원본의 핵심 정보와 충돌하는 부분이 있습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 관련된 정보를 포함하고 있지만, 추가된 내용이 원본의 주제와 직접적으로 관련이 없으므로 적절한 관련성을 가지지 못합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보와 추가적인 설명이 포함되어 있지만, 두 부분 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 포함하고 있지만, 추가된 내용이 사실과 다르거나 원본의 맥락을 왜곡하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않는 부분이 많아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 원본 텍스트와의 관련성이 떨어져 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.4367866146799028</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>附加合格者的通知将在以下时间发布：
+- 第一次补充合格者通知：2024年2月14日（星期三）上午9:00
+- 第二次补充合格者通知：2024年2月15日（星期四）上午9:00
+请注意，所有申请者都需要在指定时间内通过学校网站查询自己的录取结果，并完成注册。未按时注册的申请人将被视为自动放弃入学资格。</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 수시모집 등록자의 결원에 대한 정시 일반학생전형으로의 이월 및 추가 합격자 선발에 대한 정보를 포함하고 있습니다. 그러나 "지원자가 미달한 경우"라는 표현은 원본의 "등록(입학) 포기로 인한 결원"이라는 구체적인 내용을 다소 일반화하여 표현하고 있어 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "정시&lt;나&gt;군으로 이월하여 선발합니다."라는 부분은 원본 텍스트에 명시된 내용과는 다소 다르게 표현되어 있어 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 추가 모집 가능성에 대한 언급도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 "정시&lt;나&gt;군"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 정보의 흐름이 약간 끊기는 느낌이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 주요 내용에 대한 정확성을 유지하고 있습니다. 다만, 일부 표현에서 약간의 차이가 있어 완벽한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "지원자가 미달한 경우"라는 표현은 원본의 의미를 완전히 전달하지 못할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현에서 약간의 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.7919995387907419</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집에서 지원자가 미달한 경우, 정시 일반학생전형 모집인원으로 이월하여 추가 합격자를 선발할 수 있습니다. 특히:
+- 수시모집 실기/실적(경기실적우수자전형), 학생부교과(농어촌학생전형), 학생부교과(특성화고동일계전형), 학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형), 학생부종합(재직자전형), 학생부종합(조기취업형계약학과전형)에서 미달한 경우, 정시&lt;나&gt;군으로 이월하여 선발합니다.
+따라서 추가 모집 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 다른 전형에 대한 정보를 제공하고 있으며, 모집 대상, 지원 방법, 합격 기준 등에서 원본 텍스트와 일치하지 않는 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없으며, 전형의 세부 사항이 다르게 설명되고 있습니다. 예를 들어, 모집 대상이 다르게 언급되고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 내용이 원본 텍스트와 관련이 적고, 주요 세부 사항이 누락되어 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 떨어집니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 구조적으로 일관성이 있지만, 원본 텍스트와의 관련성이 낮아 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 예를 들어, 모집 대상과 합격 기준이 다르게 설명되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 어느 정도 적절하지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 많아 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.6834456234732645</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 평생학습자전형(나군)에 대한 주요 내용을 요약해 드리겠습니다:
+1. 모집 대상:
+   - 평생학습자, 성인학습자, 재직자
+2. 지원 방법:
+   - 인터넷 원서 접수
+   - 서류 제출 (학생부종합전형은 면접 포함)
+3. 합격 기준:
+   - 서류평가: 공동체역량, 학업역량, 전공적합성 등 평가
+   - 면접평가: 지원동기 및 학업계획, 학업역량, 전공적합성 등을 평가
+4. 합격자 발표:
+   - 홈페이지를 통해 최초합격자부터 충원합격자까지 발표
+5. 동점자 처리 기준:
+   - 면접고사 성적이 높은 순으로 우선
+   - 서류평가 공동체역량 영역 성적이 높은 순으로 우선
+   - 서류평가 전공적합성 영역 성적이 높은 순으로 우선
+6. 합격자 발표 후 등록금 납부:
+   - 지정된 기간 내에 등록금을 납부해야 함
+   - 지정 기일 내 미납시 입학 포기 처리
+7. 전형료:
+   - 40,000원 (학생부종합전형)
+8. 기타 유의사항:
+   - 학교생활기록부 작성 시 학교폭력 관련 내용 확인
+   - 서류제출 시 원본 제출을 원칙으로 함
+이러한 정보를 바탕으로 평생학습자전형에 지원하시면 됩니다. 자세한 사항은 동의대학교 입학처 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에 포함되지 않은 추가적인 자격 요건을 포함하고 있으며, 이는 원본의 내용과 상충합니다. 원본 텍스트는 고교 졸업(예정)자 또는 동등학력 소지자만을 언급하고 있지만, 생성된 응답은 재직 기간, 산업체 근무 조건 등 여러 가지 추가 조건을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트의 지원 자격에 대한 정보는 단순하지만, 생성된 응답은 여러 조건을 추가하여 원본의 내용을 왜곡하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 많아 원본의 핵심 내용을 흐리고 있습니다. 원본의 지원 자격에 대한 간단한 설명이 아닌, 복잡한 조건을 나열하고 있어 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트의 간결함과는 다소 차이가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조건을 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다. 각 조건이 독립적으로 나열되어 있어 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서 언급된 자격 요건 외에 많은 추가 조건을 포함하고 있어 정확성 점수가 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 모두 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 요소가 많습니다. 원본의 간단한 자격 요건을 복잡하게 변형하여 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 복잡하여 원본의 간단한 메시지를 전달하는 데 어려움이 있습니다. 따라서 이해 가능성 점수가 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.8228347365106339</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+2. 재직기간이 3년 이상인 자 (2024년 3월 1일 기준)
+3. 산업체에서 근무하고 있으며, 다음 중 하나를 충족해야 합니다:
+   - 국가·지방자치단체 및 공공단체 소속 직원
+   - 상시근로자 5인(사업주 포함) 이상 사업체에 재직한 자 
+   - 4대 보험 중 1개 이상 가입된 사업체 근무자 (창업·자영업자 포함)
+   - 1차 산업 종사자로서 국가·지방자치단체가 발급하는 공적증명서를 통해 인정받은 자
+4. 지원자격 증빙서류는 2024년 1월 1일 이후에 발급된 것으로 제출해야 합니다.
+5. 학교생활기록부, 검정고시 합격증서 등 필요한 서류를 제출해야 합니다.
+이러한 자격 요건을 충족하는 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 동의대학교 수시모집 원서접수에 대한 내용으로, 원본 텍스트와 관련이 없습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 이로 인해 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사에 대한 정보가 아닌 원서접수에 대한 내용이므로 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 맥락에서의 유창성은 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.4397519599173513</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수시모집 원서접수는 인터넷을 통해만 접수 가능합니다. 따라서 실기고사도 인터넷을 통해 응시해야 합니다.
+인터넷 원서접수 시 사이트 접속이 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 주제와 관련 없는 세부사항(종목, 준비사항, 주의사항 등)만 나열하고 있습니다. 따라서 사실성 점수는 1로 평가합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트의 정보와 상충하는 내용이 없지만, 관련성이 없기 때문에 일관성 점수는 1로 평가합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성 점수는 1로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 관련이 없으며, 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 1로 평가합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다. 따라서 의미 적합성 점수는 1로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 주제와의 관련성이 떨어지기 때문에 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3253458430468201</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 이루어집니다:
+1. **종목**:
+   - 제자리 멀리뛰기 (240점)
+   - 메디신볼 던지기 (243점) 
+   - Z-런 (230점)
+2. **준비사항**:
+   - 운동복 및 운동화 착용 (스파이크, 축구화 등 특수화는 불가)
+   - 메디신볼 규격: 남자 3kg, 여자 2kg
+3. **주의사항**:
+   - 각 실기종목 시 운동복 및 운동화를 착용해야 함
+   - 신발바닥에 이물질 가칠 수 없음
+   - 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게는 해당 종목에 최저점수를 부여함
+   - 각 실기종목별 2회 반칙자에게는 최저점수를 부여함
+실기고사는 이러한 준비와 주의사항을 지키면서 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3차 이후 충원합격자 발표 과정에서 전화 통보가 이루어질 가능성이 있다고 언급하고 있지만, 원문에서는 전화로 개별 연락을 하지 않는다고 명확히 설명하고 있습니다. 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있는데, 생성된 응답은 전화 통보가 이루어질 가능성을 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 전화 통보의 가능성에 대한 언급이 원문과 상충하여 다소 부적절합니다. 그러나 전체적으로는 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 전화 통보에 대한 언급이 원문과 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 상반되는 내용을 포함하고 있어 정확성이 떨어집니다. 원문에서는 전화 통보가 이루어지지 않는다고 명확히 설명하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원문과의 불일치로 인해 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성에서 모두 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련이 있지만, 전화 통보의 가능성에 대한 언급이 원문과 상충하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6848774291766913</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 지원자는 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+따라서, 수시 충원합격자 발표 후에는 전화 통보가 이루어질 가능성이 있지만, 두절로 인해 통보를 받지 못한 경우 등록 의사가 없는 것으로 간주될 수 있으므로, 지원자는 이 기간 동안 꾸준히 전화를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 언급하고 있지만, 2024학년도 모집 결과에 대한 정보는 출처 텍스트와 관련이 없습니다. 따라서 일부 사실은 정확하지만, 관련 없는 정보를 포함하고 있어 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출처 텍스트와 일치하는 부분이 있지만, 2024학년도 모집 결과에 대한 정보는 출처 텍스트와 일관성이 없습니다. 이로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하려고 하지만, 2024학년도 정보는 직접적인 관련이 없으므로 점수를 약간 낮추었습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있지만, 2024학년도 정보가 포함되어 있어 약간의 일관성 문제가 발생합니다. 그러나 전체적으로는 잘 구성되어 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2023학년도 수시모집 결과에 대한 정보가 없다는 점은 정확하지만, 2024학년도 정보는 출처 텍스트와 관련이 없으므로 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 평균적입니다. 일부는 정확하지만, 관련 없는 정보가 포함되어 있어 전반적인 질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 2024학년도 정보는 질문의 맥락과 맞지 않으므로 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 관련 없는 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7345065149212853</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접 확인할 수 없습니다. 하지만, 유사한 정보를 찾아볼 수 있습니다.
+제공된 데이터 중 인문사회과학대학 경찰행정학과의 2024학년도 모집 결과는 다음과 같습니다:
+- 모집인원: 7명
+- 지원인원: 29명
+- 경쟁률: 약 4.14대 1
+이 정보는 2023년도와 유사한 경향을 보일 것으로 예상되지만, 정확한 2023학년도 결과는 제공되지 않았습니다.
+만약 더 구체적인 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶으시다면, 동의대학교 입학처 웹사이트나 관련 공지사항을 확인해 보시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 일부 전형에서 수능 없이 지원이 가능하다고 주장하지만, 이는 원문과 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 수능 없이 지원할 수 있는 전형이 있다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시한 핵심 정보와는 다르게 수능 없이 지원할 수 있는 전형에 대한 정보가 포함되어 있어 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 논리적인 흐름이 약합니다. 원문과의 관계를 명확히 하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 원문은 수능 응시가 필수라고 명시하고 있으나, 생성된 응답은 이를 부정하는 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 원문과 크게 다르며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 왜곡하고 있으며, 원문에서 요구하는 정보와는 상반된 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.5292829489349761</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 농어촌학생전형과 경기실적우수자전형은 수능 없이 지원할 수 있습니다.
+1. **농어촌학생전형**:
+   - 이 전형은 학생부교과 성적으로 평가되며, 수능 점수가 필요하지 않습니다.
+2. **경기실적우수자전형**:
+   - 이 전형도 학생부교과 성적이 주요 평가 요소로 사용되며, 수능 점수는 필요하지 않습니다.
+그러나 대부분의 전형에서는 수능 점수가 필수적으로 요구됩니다. 따라서 수능을 응시하지 않은 지원자는 해당 전형에 지원하기 위해서는 특별한 조건이나 예외 사항이 있는지 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 경과한 경우 정시 모집에 지원할 수 없다고 주장하고 있습니다. 그러나 원본 텍스트에서는 고등학교 졸업 시기와 상관없이 정시 지원이 가능하다고 명시하고 있습니다. 따라서 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 고등학교 졸업 시기와 관계없이 지원이 가능하다고 명시하고 있지만, 생성된 응답은 10년이 경과한 경우 지원할 수 없다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 경과한 경우의 지원 가능성에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 정시 지원 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성은 있지만, 원본 텍스트의 주제를 완전히 반영하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 이 정보들이 원본 텍스트와의 관계에서 명확하게 연결되지 않아 일관된 흐름이 부족합니다. 따라서 일관성은 있지만, 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공하고 있습니다. 고등학교 졸업 후 10년이 경과한 경우 정시 지원이 불가능하다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6451322808708349</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 일반적으로 고등학교 졸업 후 10년이 경과한 자는 정시 모집에 지원할 수 없습니다. 대다수의 대학은 최소 3년 이내의 고교 졸업자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+하지만, 일부 특별한 전형이 있을 수도 있으므로 확인해야 할 사항들은 다음과 같습니다:
+1. **평생학습자전형**: 이는 일반적으로 고등학교 졸업 후 3년 이상 경과한 자를 대상으로 하지만, 특정 조건을 충족하면 가능할 수 있습니다.
+2. **성인학습자전형**: 이 전형은 고등학교 졸업 후 30세 이상의 재직자를 대상으로 하므로, 만 30세 이상이면 지원 가능할 수 있습니다.
+3. **재직자전형**: 이는 일반적으로 고등학교 졸업 후 3년 이상 경과한 재직자를 대상으로 합니다.
+4. **조기취업형계약학과전형**: 일부 전형에서는 고등학교 졸업 후 일정 기간이 경과한 자도 지원할 수 있습니다.
+따라서, 정확한 답변을 위해서는 동의대학교 2024학년도 입시 안내를 확인하거나 입학처에 직접 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2023년의 일정으로 잘못된 정보를 제공하고 있으며, 원본 텍스트의 2024학년도 일정과는 전혀 일치하지 않습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 연도의 정보를 제공하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 전혀 다른 내용을 다루고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.6227692510804173</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **접수 시작일**: 2023년 1월 5일 (화)
+2. **접수 마감일**: 2023년 1월 9일 (토)
+3. **합격자 발표**: 2023년 1월 24일 (목)
+이 일정은 수능(일반학생전형) 최종등록자와 수능성적 반영방법, 전형별 모집단위별 모집인원 등과 관련된 정보를 기준으로 정리되었습니다. 
+특히 주목할 점은:
+- 접수 시작일부터 마감일까지 5일 동안의 접수가 가능합니다.
+- 합격자 발표는 접수 마감 후 약 19일 뒤에 이루어집니다.
+이 일정을 참고하여 정시모집에 참여하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 대부분의 정보가 정확하게 전달되었습니다. 그러나 "최종등록자"에 대한 정보가 누락되어 있어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되며, 주요 일정과 세부 사항이 잘 정리되어 있습니다. 다만, "최종등록자"에 대한 언급이 추가되어 혼란을 줄 수 있어 점수를 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련된 모든 정보를 포함하고 있으며, 주제에 대한 적절한 설명을 제공합니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴져 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 "최종등록자"에 대한 추가 정보가 혼란을 줄 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "최종등록자"에 대한 정보가 누락되어 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 누락된 정보로 인해 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "최종등록자"에 대한 언급이 추가되어 혼란을 줄 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 추가되어 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.9149398781084644</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수(인터넷)**: 
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 
+     - &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군: 2024년 2월 2일 (금) 14:00
+   - 최초 합격자 등록: 
+     - 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 충원 합격자 발표 및 등록:
+     - 1차: 2024년 2월 14일 (수), 9:00
+     - 2차: 2024년 2월 15일 (목), 9:00
+     - 3차 이후: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+6. **합격자 발표 및 등록금 납부**:
+   - 지정 기일 내에 등록금을 납부하지 않으면 입학 포기로 간주됩니다.
+7. **최종등록자**: 이 부분은 제공된 정보에서 누락되어 있습니다. 일반적으로 최종등록자는 합격자 발표 후 일정 기간 동안 등록금을 납부해야 하며, 이를 지키지 않으면 입학 포기로 간주됩니다.
+이 일정은 변경될 수 있으므로 공식 홈페이지 (http://ipsi.deu.ac.kr)를 통해 최신 정보를 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 있는 전형에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에 따르면, 수능 미응시자는 지원이 불가능하다고 명시되어 있습니다. 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 직접적으로 관련된 내용을 다루고 있습니다. 수능 미응시자와 관련된 전형에 대한 정보를 제공하고 있어 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 긍정적인 점이 있습니다. 그러나 전반적으로 원본 텍스트와의 불일치로 인해 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공합니다. 수능 미응시자가 지원할 수 있다는 주장은 원본 텍스트와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.655435174646663</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **학생부교과(농어촌학생전형) - 정원외**
+   - 이 전형에서는 수능을 응시하지 않은 농어촌 지역 출신 학생들이 지원할 수 있습니다.
+2. **학생부종합(조기취업형계약학과전형) - 정원외**
+   - 이 전형에서도 수능 미응시자도 지원이 가능합니다.
+위와 같이, 일부 전형에서는 수능을 응시하지 않은 학생들도 지원할 수 있는 기회가 주어집니다. 그러나 대부분의 전형은 수능 성적을 반영하므로, 수능 미응시자는 해당 전형에서 불리한 점이 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전자공학과의 충원 합격이 3차까지 이루어졌다고 주장하지만, 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 하였으나, 생성된 응답은 3차까지 이루어졌다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으나, 원문에서 명시된 정보와는 다소 차이가 있습니다. 그럼에도 불구하고 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원문과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았으며, 전반적으로 원문과의 불일치로 인해 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 불일치로 인해 의미가 왜곡될 수 있습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 그럼에도 불구하고 문장은 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.5895513494724233</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2023년도에 전자공학과의 충원 합격은 3차까지 이루어졌습니다. 이는 표에서 "충원 합격 (후보순위)" 열을 통해 확인할 수 있습니다. 전자공학과의 경우, 최초합격 이후 1차와 2차 충원 합격이 있었으며, 총 3차에 걸쳐 합격자가 선발되었습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 직접 언급하지 않고 있으며, 제공된 정보와는 상반된 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하는 반면, 생성된 응답은 전화번호에 대한 언급이 없습니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 연락처를 찾는 방법에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 핵심 내용인 전화번호와는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호에 대한 정보가 전혀 포함되어 있지 않아 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 맞지 않습니다. 전화번호를 제공하는 대신 다른 정보를 제시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.4578203828030456</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学入学处的电话号码。为了获取准确的联系方式，建议访问东义大学的官方网站或通过其官方社交媒体账号查找最新的联系电话和其他联系信息。通常大学官网上的“联系我们”页面会提供详细的联系方式，包括电话、电子邮件和办公地址等。</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, "충원합격이 되었으나"라는 표현이 원본의 의미를 약간 왜곡하고 있습니다. 원본에서는 충원합격 통보가 어려운 경우에 대한 설명이므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "충원합격이 되었으나"라는 표현이 원본의 의도와 다소 다르게 해석될 수 있어 약간의 일관성 문제를 나타냅니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, "전화 연락 두절(3회 통화)" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 따르고 있습니다. 그러나 일부 표현에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, "충원합격이 되었으나"라는 표현이 원본의 의미를 완전히 정확하게 전달하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 일부 표현에서의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 일부 표현에서 의미가 약간 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현에서 약간의 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.9080950837149561</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 되었으나 등록 의사가 없는 경우, 해당 학생은 등록 포기자로 간주됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록과 주의사항을 포함하고 있습니다. 그러나 일부 세부사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 일부 문구가 다르게 표현되어 있어 약간의 일관성 부족이 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 필요한 서류와 주의사항을 명확히 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 약간의 구조적 개선이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 몇 가지 세부사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현이 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 문장이 약간 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.7442186668620778</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>6년 과정 농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. 지원자 본인의 가족관계증명서 1부 
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부
+12년 과정 농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부
+주의사항:
+- 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급된 서류를 제출해야 함
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 함
+- 2024년 1월 1일 이후에 발급된 서류만 제출 가능
+6년 과정의 경우 중·고등학교 재학기간 동안 부모 모두가 농어촌 지역에 거주한 자라면 6년과정 서류를 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있지만, 추가적인 정보(제출 기간, 제출 장소 등)는 원본 텍스트에 포함되어 있지 않으므로 일부 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보가 원본 텍스트와 일관되지 않아서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 주제에 대한 적절한 설명을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 정확하게 반영하지만, 추가된 정보가 원본에 명시되지 않은 내용이므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.7867535003824475</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부 
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류는 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.
+추가로 주의사항은 다음과 같습니다:
+- 제출기간 : 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+- 제출장소 : 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 함
+- 최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출해야 함</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 저소득 기회균등 전형이 존재하지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 기회균등 전형이 없다는 점을 반복적으로 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5994543775538165</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에 있어서 저소득 기회균등 전형을 실시하지 않는 것으로 보입니다. 
+주요 내용 요약:
+1. 2024학년도 정시모집에서는 저소득 기회균등 전형을 실시하지 않습니다.
+2. 이는 입학전형 안내서에서 명시되어 있습니다.
+따라서, 정시모집으로 지원하려는 학생들은 다른 전형들을 주의 깊게 살펴보아야 합니다. 저소득 기회균등 전형이 없으므로, 해당 조건을 충족하는 학생들에게 특별한 혜택을 받지 못하게 됩니다.
+만약 추가 정보가 필요하시다면 입학전형 안내서를 다시 확인하거나 대학 관계자에게 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 절사 여부에 대한 정보가 없다는 원문 내용을 왜곡하고 있습니다. 원문에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5등급이 3등급으로 처리된다고 주장하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5등급이 절사된다고 주장하여 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 있지만, 원문에서 제공된 정보와는 다르게 해석하고 있습니다. 원문이 요구하는 정보에 대한 정확한 답변이 아니므로 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 내용의 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 잘못된 정보를 포함하고 있습니다. 2.5등급이 3등급으로 처리된다는 주장은 원문에서 확인할 수 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 원문과의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 요구하는 정보와는 다른 방향으로 해석하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 신뢰성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.6198088606693362</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사되어 3등급으로 처리됩니다.
+수능 등급의 경우, 0.5 단위까지 나와도 이는 소수점 둘째 자리에서 절사하여 정수 등급으로 처리합니다. 따라서 2.5등급은 3등급으로 반올림되어 처리됩니다.
+따라서 수능 사탐 2과목의 평균이 2.5등급이라면, 이는 서류평가나 합격 점수 산출 시 3등급으로 처리될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시 충원 합격자 발표에 대한 정보를 제공하지만, 최초 합격자 발표일과 관련된 정보가 포함되어 있어 원본 텍스트와 일치하지 않습니다. 원본 텍스트는 3차 발표 이후 개별 전화 통보로 진행된다고 명시하고 있지만, 생성된 응답은 이 부분을 누락하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(최초 합격자 발표일)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 3차 발표까지의 일정만을 다루고 있으며, 생성된 응답은 추가적인 정보를 제공하지만 이는 원본과 상충합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 정시 충원 합격자 발표에 대한 정보를 포함하고 있지만, 원본 텍스트의 핵심 내용인 3차 발표 이후의 개별 전화 통보에 대한 언급이 없습니다. 따라서 관련성은 있지만, 완전하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 특히, 최초 합격자 발표와 관련된 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 발표 일정에 대한 정확성이 떨어집니다. 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 특히, 발표 일정에 대한 정보가 혼란을 초래할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 표현이 사용되었습니다. 그러나 일부 정보가 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.6235376493997123</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 정시 모집의 &lt;나&gt;군 실기/실적(경기실적우수자전형)에서는 최초합격자 및 1차, 2차 충원합격자를 발표합니다. 
+발표 일정은 다음과 같습니다:
+- 최초 합격자 발표: 2024년 2월 2일 (금)
+- 1차 충원 합격자 발표: 2024년 2월 14일 (수) 
+- 2차 충원 합격자 발표: 2024년 2월 15일 (목)
+따라서 총 3차로 정시 충원 합격자를 발표합니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e-비즈니스학과의 입학 기준 및 점수 체계에 대한 구체적인 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 다릅니다. 원본 텍스트는 수능 4개 영역 등급이 4.6점일 경우의 합격 가능성을 언급하고 있으며, 생성된 응답은 다른 정보에 초점을 맞추고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 특정 점수에 대한 합격 가능성을 논의하고 있지만, 생성된 응답은 다른 기준과 점수 체계에 대한 정보를 제공하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 정보를 제공하지만, 주제에서 벗어난 부분이 많습니다. 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 복잡하여 약간의 이해를 필요로 할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 주제와 관련된 정보가 명확하게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 해석된 부분이 많습니다. 특히, 점수 체계와 관련된 정보가 원본 텍스트의 내용과 일치하지 않기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 일부 복잡한 표현이 있어 약간의 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.552255364056476</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. e비즈니스학과的招生计划和录取标准。
+2. 该专业的具体评分标准和最低分数线。
+根据您提供的信息，e비즈니스学部在2024年的一般学生入学考试中，其评分方法如下（摘自“38页 V. 高等学校入学考试成绩评分方法”）：
+- 国语 (25%)
+- 数学 (25%)
+- 英语 (25%)
+- 研究领域 (2个科目的总分，占25%)
+假设e비즈니스学部在该专业中没有额外加分项（如数学成绩特别好的加分），那么4.6等英语等级对应的分数是115分。
+我们需要知道e비즈尼斯学部的具体最低录取分数线。如果这个分数线低于或等于115分，那么一个英语为4.6等的学生有可能通过该专业的一般学生入学考试。
+但是具体是否能被录取还需要看其他科目（国语、数学和研究领域）的成绩以及整体排名情况。
+建议您查看e비즈尼斯学部的具体招生简章或联系学校获取更准确的信息。如果需要，可以访问学校官网http://ipsi.deu.ac.kr/查询详细信息。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 제공된 데이터와는 다른 수치(영어 등급 평균 3.20, 수능 4개 영역 평균 4.17)를 사용하고 있습니다. 이는 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 수치를 사용하고 있으며, 이는 일관성을 저해합니다. 원본 텍스트에서 제시된 평균 등급과는 다른 정보를 제공하고 있어, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 입학 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있으나, 정보 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 각 항목이 독립적으로 제시되어 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 수치를 사용하고 있으며, 이는 정확성에 큰 영향을 미칩니다. 잘못된 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 많습니다. 그러나 일부 정보가 복잡하게 제시되어 있어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6505714010505096</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>为了评估在eBiznesis学与中获得等第5.3的情况下，是否有可能被东义大学录取，我们需要参考以下信息：
+1. **eBiznesis学的招生计划**：根据提供的表格，“e비즈니스학과”的招生人数为10人。
+2. **竞争情况**：“e비즈니스학과”有89名考生申请，竞争比为8.90。
+3. **成绩分布**：
+   - 国语 + 数学 + 两门选修科目的标准分总和（平均/标准差）：438.60 / 6.87
+   - 英语等级（平均/标准差）：3.20 / 1.24
+   - 四个科目等级（平均/标准差）：4.17 / 0.19
+   - 四个科目（含加分）的标准分总和（平均/标准差）：438.60 / 6.87
+从这些数据来看，eBiznesis学的录取竞争非常激烈。等第5.3在英语等级中属于较低水平，而标准分总和也相对较低。
+**结论**：
+- 等级为5.3的学生在英语方面处于劣势。
+- 虽然有89名考生申请，但最终只有10人被录取，这意味着竞争非常激烈。
+- 从提供的数据来看，等第5.3的成绩可能不足以确保获得eBiznesis学的录取。
+因此，在没有其他特别加分或特殊条件的情况下，等级为5.3的学生被eBiznesis学录取的可能性较低。建议该学生考虑其他更符合其成绩水平的专业或者准备在后续的补充录取中争取机会。</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 왜곡하고 있으며, e비즈니스학과의 예비 합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 성적 계산과 관련된 정보를 제공하며, 원본의 내용을 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 성적 계산에 대한 복잡한 설명을 제공하며, 원본의 주장을 반박하는 내용으로 보입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 핵심 정보인 예비 38번의 합격 가능성에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 흐름이 원본 텍스트와의 관련성 부족으로 인해 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름을 유지하지 못하고 있습니다. 성적 계산에 대한 설명이 있지만, 원본의 주제와 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다. 원본의 내용을 무시하고 다른 정보를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 주제와 관련된 정보가 부족합니다. 원본의 주제를 벗어난 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어렵습니다. 주제와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.5892110632218363</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的数据。根据您提供的信息，“e비즈니스학전공 예비 38번”（e-Business学专业的预录取编号38）的成绩是否足够被预录取，需要参考以下几点：
+1. **e비즈니스학과 모집단위의 수능 성적 반영 비율**：根据之前的表格，“e비즈니스학과”的成绩反映比例是“국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%”。
+2. **e비즈니스학과 모집단위의 수능 최종등록자 성적**：从之前的表格中，我们可以看到“e비즈니스학과”的最终注册者的平均成绩和标准差。例如：
+   - 国语 + 数学 + 探究(2个科目合计) (含加分) 标准转换分数总和 { 平均 / 标准偏差 }：438.60 / 6.87
+假设您提供的“e비즈니스학전공 예비 38번”的成绩为：
+- 国语（标准分）: 105
+- 数学（标准分）: 102
+- 英语等级分数：4 (对应约60分)
+- 探究科目合计标准分：7.5
+我们可以计算总分为：
+\[ 105 + 102 + 60 + 7.5 = 274.5 \]
+这个成绩与“e비즈尼斯学”的最终注册者的平均成绩（438.60）相比，明显低于平均水平。因此，仅凭这些成绩，预录取编号为38的候选人可能难以达到预录取标准。
+但是，具体能否被预录取还需要考虑其他因素，如面试表现、个人陈述等。建议详细查看学校的具体录取标准和流程，并咨询招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 합격 가능성에 대한 정보를 제공하고 있으며, 3.44라는 점수가 낮다고 언급하고 있습니다. 그러나 "3.5 이상의 등급이 필요하다"는 부분은 원문에 명시된 평균 등급 3.37보다 높아 다소 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 평균 등급에 대한 해석에서 차이가 있습니다. 원문에서는 3.37이 평균 등급이라고 명시되어 있으나, 생성된 응답에서는 3.5 이상의 등급이 필요하다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 질문과 관련된 정보를 잘 다루고 있으며, 합격 가능성에 대한 조언을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 평균 등급에 대한 언급에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 평균 등급에 대한 언급에서 약간의 부정확성이 있습니다. 원문에 명시된 평균 등급보다 높은 기준을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 질문에 대한 적절한 답변을 제공합니다. 그러나 평균 등급에 대한 기준이 다소 부적절하게 설정되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6149138306639494</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44이라는 등급은 상당히 낮은 점수입니다. 동의대학교 간호학과는 경쟁률이 매우 높고, 평균 등급도 상대적으로 높습니다.
+간호학과의 경우, 일반적으로 합격을 위해서는 3.5 이상의 등급이 필요합니다. 일부 특별한 사항이나 추가적인 자질을 갖춘 지원자들만 예외적으로 합격할 수 있습니다.
+현재의 등급으로는 합격 가능성은 매우 낮다고 볼 수 있습니다. 하지만 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **추가 지원**: 다른 대학이나 전형에 추가로 지원하여 기회를 늘립니다.
+2. **보충 자료 제출**: 면접 준비나 자기소개서 등 보충 자료를 잘 준비하고 제출합니다.
+3. **면접 성과**: 면접에서 좋은 인상을 주는 것이 중요합니다.
+결론적으로, 현재의 등급으로는 낮은 합격 가능성입니다만, 다양한 방법을 통해 기회를 찾아볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보를 일부 반영하고 있지만, 주어진 성적(2.52)을 기준으로 한 합격 가능성에 대한 명확한 결론을 제시하지 않고, 성적 변환에 대한 불확실성을 강조하고 있습니다. 이는 원본 텍스트의 명확한 합격 가능성 언급과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 원본 텍스트는 2.52의 성적이 평균 등급보다 높아 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 성적 변환이 필요하다고 하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 성적 변환과 관련된 정보는 유용하지만, 질문에 대한 명확한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려하여 논리적으로 구성되어 있지만, 원본 텍스트의 주제와 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다. 성적 변환에 대한 언급이 주제를 흐리게 하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 성적 변환에 대한 언급은 원본 텍스트의 명확한 정보를 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 정보의 정확성 및 일관성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 성적 변환에 대한 언급이 원본의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 성적 변환에 대한 복잡한 설명이 추가되어 있어 혼란을 초래할 수 있습니다. 원본 텍스트의 간결한 메시지와는 대조적입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.541672724072927</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **东国大学间护士专业（2024年）的录取标准**：根据提供的表格数据，我们可以看到东国大学间护士专业的相关信息。
+2. **你的成绩情况**：你提到你的成绩是2.52。但是，这个分数需要转换为具体的标准化考试分数才能进行比较。
+3. **参考其他学生的录取情况**：通过查看“ 수능(일반학생전형) 최종등록자”（2024学年最终注册者）表格中的数据，我们可以了解该专业的录取趋势和标准。
+根据提供的信息，“의료보건생활대학 / 간호학과”的最终注册数据显示：
+- 招生人数：22
+- 报名人数：145
+- 竞争率：6.59
+- 最终合格者平均成绩（国语+数学+两门选修课，含加分）：357.63
+假设你的成绩是2.52，我们需要将其转换为标准化考试分数。根据表格中的数据，最终合格者的平均分约为358左右。
+### 分析：
+1. **竞争率**：6.59意味着每6名考生中只有1人被录取。
+2. **平均分**：最终合格者平均分为357.63，而你的成绩需要转换为标准化考试分数后进行比较。
+假设你提供的2.52是原始的标准化考试分数（例如，0-400分），那么你需要将这个分数与358进行对比。如果2.52对应的标准化考试分数低于358，则可能难以被录取；反之则有可能。
+### 建议：
+1. **转换成绩**：请确认你的2.52是原始的标准化考试分数还是其他形式的成绩。
+2. **参考往年数据**：查看更多往年的录取数据，了解具体的分数线变化趋势。
+3. **咨询学校**：直接联系东国大学间护士专业的招生办公室获取更准确的信息。
+综上所述，在没有具体转换方法的情况下，仅凭提供的信息难以确定你是否能被录取。建议进一步确认你的成绩并参考更多详细的数据进行判断。</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 설명: 생성된 응답은 3.7의 GPA가 좋은 점수라고 언급하고 있지만, 원본 텍스트에서는 3.7이 간호학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서, 이 부분에서 사실과 다소 상충하는 내용이 있습니다.
+2. Consistency Score (1-5): 3  
+   - 설명: 생성된 응답은 GPA에 대한 긍정적인 평가를 제공하지만, 원본 텍스트의 내용과는 일치하지 않는 부분이 있습니다. 특히, 합격 가능성에 대한 언급이 원본과 다르게 해석되고 있습니다.
+3. Relevance Score (1-5): 5  
+   - 설명: 생성된 응답은 간호학과에 지원하기 위한 여러 요소를 잘 설명하고 있으며, 원본 텍스트의 질문에 직접적으로 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3  
+   - 설명: 생성된 응답은 GPA에 대한 긍정적인 평가를 포함하고 있지만, 원본 텍스트의 사실과는 다소 상충하는 부분이 있어 정확성에서 점수를 낮추었습니다.
+7. Multidimensional Quality Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있으며, 정보가 잘 전달되고 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.5746136644617564</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 상당히 좋은 점수입니다. 그러나 간호학과에 지원하려면 몇 가지 중요한 요소를 고려해야 합니다:
+1. **성적**: 
+   - 간호학과는 일반적으로 높은 학업 성적이 요구됩니다.
+   - 3.7의 GPA는 좋은데, 이 정도 점수로도 합격 가능성은 있습니다.
+2. **서류 평가**:
+   - 서류평가에서 공동체역량, 학업역량, 전공적합성 등이 중요합니다.
+   - 창의적 체험활동, 교과학습발달상황, 행동특성 및 종합의견 등을 잘 기재해야 합니다.
+3. **면접**:
+   - 면접에서는 지원동기와 학업계획, 전공적합성 등이 중요합니다.
+   - 실제 경험과 열정을 잘 표현하는 것이 좋습니다.
+4. **추천서 및 기타 서류**:
+   - 추천서나 추가로 제출해야 할 서류가 있는지 확인하고 준비해야 합니다.
+5. **경쟁률**:
+   - 간호학과의 경쟁률이 높을 수 있으므로, 최대한 좋은 성적과 서류를 갖추는 것이 중요합니다.
+   - 최근 몇 년간의 합격자들의 평균 점수와 비교해보세요.
+6. **추천**:
+   - 가능한 한 많은 정보를 수집하고, 간호학과에 대한 깊은 이해를 가지고 지원하는 것이 좋습니다.
+   - 전문가나 선배들의 조언을 구하여 준비를 체계적으로 진행하세요.
+결론적으로 3.7의 GPA로도 합격 가능성은 있습니다만, 서류와 면접에서 뛰어난 성적과 경험을 잘 보여줘야 합니다. 꼼꼼하게 준비하고, 최선을 다하면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 합격 가능성에 대한 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 2.58의 성적이 평균 등급보다 높다고 언급했으나, 생성된 응답은 이 성적이 간호학과에 합격하기에 "매우 어려울 것"이라고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 2.58의 성적이 합격 가능성이 높다고 했지만, 생성된 응답은 그와 반대되는 주장을 하고 있습니다. 이로 인해 두 텍스트 간의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 합격 점수에 대한 정보를 제공하여 관련성을 유지하고 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 특히, 성적에 대한 해석이 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 보이고 있습니다. 따라서 전반적인 품질이 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 관계가 불명확하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.7512492760491244</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 최종등록자의 평균 경쟁률은 6.59입니다. 가장 낮은 경쟁률을 보인 국어국문학과는 4.11이며, 가장 높은 경쟁률을 보인 간호학과는 6.59입니다.
+최종등록자 표에서 간호학과의 최저 합격 점수를 확인해보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 357.63 / 5.37 }
+- 영어 등급: { 1.86 / 0.75 }
+- 수능 4개 영역 등급: { 3.12 / 0.21 }
+이러한 정보를 바탕으로, 성적이 2.58인 경우 간호학과에 정시로 합격하기는 매우 어려울 것으로 보입니다.
+간호학과의 경쟁률이 높고, 최저합격 점수가 상대적으로 높기 때문에 2.58이라는 성적은 충분한 경쟁력을 갖추지 못할 가능성이 큽니다. 그러나 정시 전형에서 합격하기 위해서는:
+1. **성적이 더 높아야 합니다:** 최저합격 점수를 상회하는 성적이 필요합니다.
+2. **서류평가와 면접에서도 우수한 평가를 받을 수 있어야 합니다:** 서류평가 영역에서 공동체역량, 학업역량, 전공적합성 등에서 높은 점수를 받는 것이 중요합니다.
+따라서, 현재의 성적이 간호학과에 정시로 합격하기에는 부족한 것으로 보입니다. 다른 모집단위나 전형을 고려해보는 것도 좋은 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 게임공학과의 예비 7번에 대한 구체적인 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 예비 7번의 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 7번의 합격 가능성에 대한 정보가 상충합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다. 관련성은 있지만, 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 원본 텍스트의 주제를 명확히 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있으며, 예비 7번의 합격 가능성에 대한 잘못된 해석을 제공합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 원본의 의도를 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.5555268557239798</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有明确提到游戏学系(게임공학과)的具体录取情况，包括预录号7是否会被录取。通常情况下，预录号（예비 학번）意味着学生已经被初步接受，但仍需完成一些程序才能最终确认录取。
+为了确定预录号7能否被录取，建议您：
+1. 查看学校官网或招生办公室的通知。
+2. 联系游戏学系的招生办公室获取最新信息。
+3. 关注学校的官方公告板、邮件或其他通知渠道。
+如果您能提供更多关于申请的具体细节和截止日期的信息，我可以帮助您进一步分析。请务必尽快与相关部门联系确认您的录取状态。祝您好运！</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 게임공학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 제공하며, 4.16의 성적이 평균보다 높다고 언급합니다. 그러나 생성된 응답은 다른 평균 성적을 제시하고 있으며, 원본 텍스트의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 합격 가능성이 높다고 언급하지만, 생성된 응답은 경쟁이 치열할 것이라고 주장하며 서로 상반된 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 정보와는 거리가 있는 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 중국어로 작성되어 있어 한국어 사용자에게는 불편할 수 있습니다. 따라서 유창성 점수는 중간 정도로 평가합니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 요소를 고려한다고 하지만, 논리적인 흐름이 부족하고 주제 간의 연결이 약합니다. 원본 텍스트와의 연관성이 떨어져 일관된 메시지를 전달하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 평균 성적과 비교할 때, 생성된 응답의 수치는 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 매우 약합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 일부 이해할 수 있는 내용이 있지만, 주제가 불명확하고 원본 텍스트와의 관련성이 떨어져 이해하기 어려운 부분이 많습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.5607878819018629</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. 同意大学游戏学专业的录取情况。
+2. 您的英语等级和四门科目等级。
+3. 竞争对手的实力。
+从给定的数据中，我们可以看到以下信息：
+- 游戏学专业在2024年有3名最终合格者（包括候补）。
+- 最终合格者的平均英语等级为4.33。
+- 最终合格者的平均四门科目等级为5.87。
+根据这些数据，您的成绩（国语 + 数学 + 两门选修课的标准化转换分数总和约为412.67，英语等级为4.16）略低于最终合格者平均水平。因此，您可能需要与前几名竞争者进行激烈竞争。
+综合考虑：
+- 您的成绩接近但略低于最终合格者的平均分。
+- 由于名额有限（3名），您的排名可能会在前5到10名之间。
+建议：
+1. 如果您希望增加录取机会，可以尝试提高英语成绩或选修课成绩。
+2. 准备充分的面试和附加材料，以展示您的个人优势。
+3. 考虑其他可能的竞争较小的专业作为备选方案。
+综上所述，在理想情况下，您有可能获得前5到10名的位置。但具体排名还需根据实际申请人数和其他考生的成绩来确定。</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 경영정보학과의 평균 등급이나 합격 가능성에 대한 정보가 전혀 포함되어 있지 않습니다. 대신, 다른 전공에 대한 정보와 경쟁률, 평균 표준 점수에 대한 내용이 포함되어 있어 원본 텍스트의 사실과는 전혀 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 경영정보학과의 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 다른 전공에 대한 정보로 대체되어 있습니다. 따라서 두 텍스트 간에 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 경영정보학과의 합격 가능성에 대한 질문에 대한 답변을 요구하고 있지만, 생성된 응답은 다른 전공에 대한 정보로 구성되어 있어 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 다른 전공에 대한 정보가 포함되어 있어 논리적 흐름이 원본 텍스트와는 다릅니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 내용과는 관련이 없는 정보가 제공되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않습니다. 다른 전공에 대한 정보가 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.4787363769703965</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看相关表格中的信息。根据您提供的表格内容，“经营信息学”专业的相关信息如下：
+- 经营信息学 / 90 / 95 / 10.56 / 33 / { 326.89 /  6.92 / } / { 2.88 /  0.56 / } / { 3.88 /  0.14 / } / { 450.78 /  5.90 / }
+从这个信息中，我们可以看到：
+- 招生人数：9
+- 报名人数：95
+- 竞争率：10.56（即每10.56人竞争一个名额）
+- 最终录取平均标准分：450.78
+根据这些信息，我们可以推断出：
+- 该专业的报名人数较多，竞争非常激烈。
+- 录取的平均标准分相对较高。
+然而，仅凭您提供的个人成绩（3.75）无法直接判断是否能够被最终录取。您的成绩需要与最终录取的平均标准分进行比较，并考虑到其他因素如排名等。
+建议：
+1. 查看自己的总成绩是否接近或超过450.78的标准分。
+2. 考虑到竞争激烈，您可能需要在排名上处于有利位置。
+3. 保持关注学校发布的最终录取分数线和具体要求。
+综上所述，仅凭目前提供的信息无法确定能否被经营信息学专业最终录取。建议密切关注学校的官方通知并准备充分。</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보와 관련 없는 내용을 포함하고 있습니다. 원본 텍스트는 경영정보학과의 평균 등급과 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 다른 학과의 입학 기준과 관련된 정보를 다루고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트는 경영정보학과의 합격 가능성에 대한 내용을 다루고 있지만, 생성된 응답은 다른 학과의 입학 기준에 대한 정보를 제공합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 없으며, 주제와 내용이 전혀 일치하지 않습니다. 원본 텍스트의 질문에 대한 직접적인 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 한국어 사용자가 이해하기에는 언어가 다르기 때문에 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.5804706800126763</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部（经管学院）的招生计划和录取标准。
+2. 学生的国语、数学和选修科目的成绩是否达到最低要求。
+根据提供的表格数据，我们可以看到以下相关信息：
+- 经营信息学部 (经营信息学) 的招生人数为 9 名。
+- 支持一般学生申请（General Student Admission）。
+- 成绩要求方面，虽然没有直接给出具体分数要求，但可以参考其他类似专业的成绩分布情况。
+从表格中的数据来看：
+- 国语 + 数学 + 选修 (2个) 标准转换分的平均值为 313.89（标准差为 6.92）。
+- 英语等级的平均分为 4.40，标准差为 0.56。
+根据这些数据，我们可以推测：
+- 经营信息学部的成绩要求应该在 310 分以上。
+- 英语等级至少需要达到 B 级（4.0）或以上。
+假设您的成绩是 4.2，这已经超过了平均值。但是具体是否能够被录取还需要考虑其他因素如竞争情况等。
+综上所述：
+- 如果您的总分接近或超过 310 分，并且英语等级至少为 B 级（4.0），那么您有可能成为初试合格者。
+- 具体能否最终注册还需根据实际报名人数和成绩分布来确定。
+建议您查看最新的招生简章或直接咨询学校招生办公室以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적에 대한 정보를 제공하지만, 제공된 데이터와 일치하지 않는 점이 있습니다. 예를 들어, 영어 등급 평균이 3.25라고 명시되어 있으나, 생성된 응답에서는 2.88로 잘못 언급되었습니다. 또한, 수능 4개 영역 등급 평균이 4.31인데, 생성된 응답에서는 3.88로 잘못 기재되어 있습니다. 이러한 오류로 인해 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 제시된 평균 성적과 생성된 응답에서 제시된 성적이 서로 다르며, 이는 일관성을 해칩니다. 또한, 원본 텍스트의 결론과 생성된 응답의 결론이 상충합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다. 경영정보학과의 평균 성적에 대한 정보는 포함되어 있으나, 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있으나, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 전체적으로 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 평균 성적에 대한 수치가 잘못 기재되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하려고 하지만, 원본 텍스트와의 관련성이 떨어져 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 언어가 한국어가 아닌 점에서 이해에 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.5823015295529238</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部（경영정보학과）2024年的一般学生招生计划。
+2. 这个专业的具体录取标准和分数线。
+根据您提供的表格数据，我们可以看到以下相关信息：
+- 经营信息学部 2024年的招生计划为9人。
+- 支持一般学生的专业包括经营信息学部（경영정보학과）等。
+- 最终注册者的平均成绩如下：
+  - 国语 + 数学 + 探索科目（两个科目）的标准化转换分数总和：450.78
+  - 英语等级：2.88
+  - 四个考试科目的等级：3.88
+从这些数据来看，最终注册者的平均成绩为450.78分。而您的成绩是5.33。
+然而，仅凭这个信息还不足以确定您是否能被录取。因为：
+1. 您的成绩远高于最终注册者平均分。
+2. 但还需要考虑其他因素如排名、竞争情况等。
+建议：
+- 查看最新的招生简章或咨询学校招生办公室获取最准确的信息。
+- 如果可能，了解具体的排名和竞争情况。
+- 准备好参加面试和其他可能的选拔环节。</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 관련된 정보를 제공하지 않고, 대신 다른 가상의 기준을 제시하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 서로 다른 기준을 제시하고 있습니다. 원본 텍스트는 특정한 평균 등급을 언급하고 있지만, 생성된 응답은 그와는 다른 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보와는 관련이 적습니다. 원본 텍스트의 평균 등급에 대한 정보가 누락되어 있어, 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려하고 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 정보가 분산되어 있어 논리적인 흐름이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보와 가정이 포함되어 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 적절하지 않은 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.4352015302170372</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **目标专业的录取标准**：巴油应有工学部（生物应用工程学部）的具体录取分数线或最低要求。
+2. **你的成绩情况**：你提到的成绩是3.33，但没有具体说明是哪个科目或者总分。通常来说，这个分数在韩国大学的入学考试中属于中等偏上水平。
+3. **其他因素**：除了学术成绩外，还可能有面试、推荐信等因素影响录取结果。
+假设巴油应有工学部（生物应用工程学部）的最低录取标准是：
+- 国语国文：4.0
+- 数学：4.5
+- 英语：3.5
+并且需要综合成绩达到一定水平，比如总分在380以上。
+根据你提供的信息，你的成绩（假设为3.33）可能略低于该专业的最低录取标准。但是，这并不意味着完全不可能被录取：
+1. **竞争情况**：如果该专业报名人数较少或者整体竞争压力不大，那么即使你的成绩稍低一些也有可能被录取。
+2. **其他因素**：如果你有特别突出的特长、社会实践经历或者其他特殊才能，可能会增加你被录取的机会。
+建议：
+- 详细了解巴油应有工学部（生物应用工程学部）的具体录取标准和要求。
+- 如果可能的话，咨询该专业的招生办公室或老师获取更准确的信息。
+- 准备充分，包括准备面试、补充其他申请材料等。</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 제공하고 있으며, 지원자의 성적을 바탕으로 합격 가능성을 평가하고 있습니다. 그러나, 원본 텍스트에서 제공된 평균 등급과는 다소 차이가 있는 점수 계산이 포함되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 일부 세부 사항에서 일관성이 떨어집니다. 예를 들어, 성적 산출 방법에 대한 설명이 추가되었으나, 원본 텍스트의 간단한 평가와는 다소 다른 접근을 취하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 지원자의 성적과 합격 가능성에 대한 분석을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 일부 정보가 추가되면서 흐름이 약간 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 점수와 관련된 정보를 제공하고 있지만, 성적 산출 방법에 대한 세부 사항이 원본 텍스트와는 다소 차이가 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 다만, 일부 추가 정보가 원본의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나, 일부 세부 사항이 추가되면서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.608776116180775</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024년 동일한 상황을 고려해보겠습니다.
+방사선학과는 다군 수능(일반학생전형) 모집단위에 속합니다. 해당 모집단위의 성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+방사선학과는 5명을 모집하며, 지원 인원이 많아 경쟁률이 높습니다. 
+당신의 현재 성적(국어 4등급, 수학 미적분 108점, 영어 4등급)으로 추정해보면:
+- 국어: 4등급 → 약 35점
+- 수학: 108점 → 표준점수로 변환하면 대략 60점 정도 됩니다.
+- 영어: 4등급 → 115점
+- 탐구(2개 과목 합산): 현재 정보 부족으로 추정하기 어렵습니다.
+이를 합치면 약 210점 정도가 될 것으로 예상됩니다. 
+방사선학과의 최종 등록자 표에서 볼 수 있듯이, 이 모집단위의 평균 점수는 대략 340-450점 사이입니다.
+따라서 현재 성적만으로는 방사선학과에 합격하기 어려울 것으로 보입니다. 
+추가적으로:
+1. 탐구 과목을 잘 준비해야 합니다.
+2. 수능 최저 기준이 없는 만큼, 수능 실력 향상에 집중하는 것이 좋습니다.
+3. 다른 모집단위도 고려해보는 것이 좋습니다.
+자세한 정보는 입학처 홈페이지를 확인하시거나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 영어 등급과 수능 4개 영역 등급에 대한 정보를 포함하고 있지만, 수능 4개 영역의 평균 등급이 3.67로 잘못 기재되어 있습니다. 원본 텍스트에서는 3.82로 명시되어 있습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 경쟁률과 관련된 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에서는 경쟁률에 대한 언급이 없으므로, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 경쟁률에 대한 정보는 원본 텍스트와 직접적인 관련이 없으므로 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 연결되어 있습니다. 그러나 경쟁률에 대한 정보가 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 사실이 부정확하며, 특히 수능 4개 영역의 평균 등급에 대한 정보가 잘못되었습니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 경쟁률에 대한 정보는 원본 텍스트의 주제와는 다소 거리가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.6108935319739306</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년도 방사선학과의 정원 내 모집인원은 5명이며, 지원 인원이 36명으로 경쟁률이 매우 높습니다 (7.20). 평균 등급 중 영어는 2.80, 수능 4개 영역은 3.67 등급입니다.
+당신의 등급이 2.66이라면, 이는 평균보다 약간 낮습니다. 그러나 방사선학과의 경우, 경쟁률이 매우 높기 때문에 조금 더 높은 등급을 가진 지원자들이 많으므로, 2.66 등급으로도 합격 가능성은 있습니다.
+결론적으로:
+1. **경쟁률이 매우 높습니다**: 7.20의 경쟁률로 인해 많은 지원자가 있습니다.
+2. **등급이 약간 낮습니다**: 평균 영어 등급(2.80)보다 약간 낮지만, 수능 4개 영역 등급(3.67)은 높습니다.
+3. **합격 가능성 존재**: 그러나 확실한 합격을 보장할 수는 없습니다.
+이런 상황에서는 추가 지원 전략을 고려해볼 만합니다:
+- 다른 모집단위나 전형에 지원하여 폭넓게 대비하는 것이 좋습니다.
+- 면접 준비를 철저히 하여 개인적인 장점을 강조하고자 합니다.
+- 추천서나 자기소개서 등 서류평가에서 높은 점수를 받을 수 있도록 노력합니다.
+결국, 최종 합격 여부는 여러 요인에 따라 결정되므로, 다양한 전략을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 경찰행정학과의 농어촌 전형에 대한 정보와 관련된 여러 요소를 언급하고 있지만, 원본 텍스트에서 제공된 평균 수능 등급(4.12)과 비교하여 3.66이라는 점수가 평균보다 높은 것이라는 주장을 명확히 하지 않고 있습니다. 또한, 농어촌 전형의 특성에 대한 설명이 원본 텍스트와 일치하지 않으며, 수능 성적 외의 요소에 대한 강조가 다소 과장되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 농어촌 전형에 대한 정보가 원본 텍스트의 내용과 일관되지 않습니다. 특히, 수능 성적 외의 요소에 대한 강조가 원본 텍스트의 주된 내용과 상충할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보 요청이 포함되어 있어 다소 주제를 벗어난 느낌을 줄 수 있습니다. 그러나 전반적으로 경찰행정학과의 합격 가능성에 대한 질문에 적절히 대응하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 경찰행정학과의 농어촌 전형에 대한 정보가 정확하지 않으며, 원본 텍스트의 수능 성적과 관련된 정보와 일치하지 않습니다. 또한, 수능 성적 외의 요소에 대한 설명이 다소 과장되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 농어촌 전형에 대한 정보가 다소 부정확하여 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 추가적인 정보 요청이 포함되어 있어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5600906027174791</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66이라는 점수로 경찰행정학과의 농어촌 전형에 지원하시려는 것 같은데, 정확한 합격 가능성 판단을 위해서는 몇 가지 정보가 필요합니다:
+1. 해당 모집단위의 최저합격 기준 점수가 궁금합니다.
+2. 지원하신 전형의 서류평가와 면접 평균 점수를 알고 싶습니다.
+일반적으로 농어촌 학생전형은 수능 성적이 아닌 서류 및 면접 평가에서 큰 비중을 차지하기 때문에, 수능 점수만으로는 정확한 판단이 어렵습니다. 
+다만, 일반적인 경찰행정학과의 경우 다음과 같은 특징이 있습니다:
+- 수능 최저 기준은 높지 않으나 서류 및 면접 평가에서 좋은 성적을 받는 것이 중요합니다.
+- 농어촌 학생전형에서는 지역 내 출신이나 농어촌 배경을 가진 지원자가 유리하게 평가받습니다.
+3.66이라는 점수로 수능 최저 기준은 충족할 가능성이 있습니다.
+2. 서류 및 면접에서 좋은 성적을 받는다면 합격 가능성은 높아질 것입니다.
+하지만, 정확한 판단을 위해서는 해당 모집단위의 최종 합격자들의 평균 점수와 비율 등을 확인해보시는 것이 좋습니다. 또한, 동일 전형에서 과거에 합격한 지원자의 성적과 서류/면접 평점을 참고하시면 도움이 될 것입니다.
+추가적으로, 해당 모집단위의 최저합격 기준 점수와 평균 점수를 확인하신 후, 입학처 홈페이지나 대학 관계자에게 문의하시는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번의 위치가 낮다고 언급하고 있으며, 충원 가능성에 대한 여러 요소를 고려해야 한다고 설명하고 있습니다. 그러나 원문에서 제공한 특정 학과 목록에 대한 언급이 없고, 예비 25번의 합격 가능성에 대한 구체적인 정보가 부족하여 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 예비 25번의 위치가 낮다고 하면서도 충원 가능성을 언급하고 있습니다. 원문에서는 특정 학과에 대한 합격 가능성을 제시하고 있으나, 생성된 응답은 그와 관련된 정보를 제공하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원문에서 제시한 특정 학과 목록과의 연결이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제시한 특정 학과에 대한 정보가 누락되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 그러나 원문과의 연결이 부족하고, 특정 정보가 누락되어 있어 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원문과의 연결이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 문장이 복잡할 수 있어 약간의 이해도를 떨어뜨릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4661401959747604</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25위라는 위치는 상대적으로 낮은 순위입니다. 그러나 입학 가능한 학생 수가 모집인원보다 많다면, 예비합격자 중에서 충원 과정을 통해 선발될 가능성이 있습니다.
+다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **경쟁률**: 현재 지원자의 수와 모집인원 사이의 차이가 얼마나 큰지 확인해야 합니다.
+2. **성적 평균 및 분산**: 지원자들의 성적이 어떻게 분포되어 있는지, 그리고 당신의 성적이 어느 위치에 있는지를 파악합니다.
+3. **충원 가능성**: 예비합격자 중에서 충원 과정을 통해 선발될 가능성이 얼마나 있는지 확인해야 합니다.
+예를 들어, 만약 모집인원이 10명이고 지원자가 25명이라면, 15위 안에 있으면 충원 가능성이 높습니다. 그러나 예비 25번이라는 위치는 상대적으로 낮은 순위로, 충원 가능성은 낮을 수 있습니다.
+하지만 모든 것이 확정되지 않은 상태이므로, 최선의 준비를 하고 대기하는 것이 좋습니다. 추가 정보가 있으면 더 정확한 판단을 할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 잘못된 점이 있습니다. 원문에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 법경찰행정학부에 대한 합격 기준을 언급하고 있습니다. 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문에서 법경찰행정학부가 존재하지 않는다고 명시했음에도 불구하고, 생성된 응답에서는 해당 학부에 대한 합격 기준을 제시하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 입시 정보에 대한 일반적인 내용을 포함하고 있지만, 법경찰행정학부에 대한 잘못된 언급으로 인해 원문과의 관련성이 떨어집니다. 원문에서 제공하는 구체적인 성적 기준과는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 법경찰행정학부에 대한 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원문에서 제공하는 사실과 일치하지 않는 정보가 포함되어 있습니다. 법경찰행정학부가 존재하지 않는다는 점을 간과하고 잘못된 합격 기준을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 이는 전체적인 품질에 부정적인 영향을 미칩니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원문과의 의미적 일치가 부족합니다. 법경찰행정학부에 대한 잘못된 정보는 응답의 의미를 왜곡합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.715339762365931</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 대한 정확한 합격 기준을 말씀드리기는 어렵습니다. 하지만, 일반적으로 다음과 같은 요소들을 고려할 수 있습니다:
+1. **최근 입시 경향**: 
+   - 최근 몇 년간의 수능 성적 분포를 참고하면 도움이 됩니다.
+   - 예를 들어, 2023년 법경찰행정학부의 최저 합격 점수와 평균 점수를 확인할 수 있습니다.
+2. **전형별 경쟁률**:
+   - 나군 수능(일반학생전형)의 경우, 경쟁률이 높을수록 더 높은 성적이 필요합니다.
+   - 예: 4.33 경쟁률인 경찰행정학과는 평균적으로 높은 점수가 요구될 것입니다.
+3. **모집 인원**:
+   - 모집 인원이 많으면 경쟁률이 낮아지고, 적다면 경쟁률이 높아질 수 있습니다.
+4. **전형별 합격 기준**:
+   - 나군 수능(일반학생전형)의 경우, 국어 + 수학 + 탐구(2개)의 표준 변환 점수 평균을 참고할 수 있습니다.
+5. **예상 경쟁률**:
+   - 2024년 예상 지원자 수와 모집 인원을 고려하여 대략적인 경쟁률을 추정할 수 있습니다.
+6. **최근 입학 성적 분석**:
+   - 2023년의 합격 점수를 참고하면 도움이 될 수 있습니다.
+### 예시 데이터
+- **인문사회과학대학 법학과**:
+  - 2024학년도 모집 인원: 7명
+  - 지원 인원: 40명
+  - 경쟁률: 5.71
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 평균: 325.29
+- **상경대학 경영학과**:
+  - 2024학년도 모집 인원: 15명
+  - 지원 인원: 65명
+  - 경쟁률: 4.33
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 평균: 311.00
+### 추정 합격 기준
+- **안정권**: 
+  - 법경찰행정학부의 경쟁률이 예상보다 낮다면, 국어 + 수학 + 탐구(2개) 표준 변환 점수 평균을 조금 밑에서 시작할 수 있습니다. 예를 들어, 310점대 중반부터 안정적으로 합격 가능할 것입니다.
+- **문 닫고 들어갈 기준**:
+  - 경쟁률이 높다면, 최상위 점수를 목표로 설정해야 합니다. 예를 들어, 국어 + 수학 + 탐구(2개) 표준 변환 점수 평균을 조금 초과하는 수준으로 준비해야 할 것입니다.
+### 결론
+- **법경찰행정학부**의 경우, 315점대에서 안정적으로 합격할 가능성이 높습니다.
+- 만약 경쟁률이 매우 높다면, 320점 이상을 목표로 설정하는 것이 좋습니다.
+최종적인 결정은 최근 입시 데이터와 경쟁률 분석을 통해 정확히 판단해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급(영어 등급 평균 6.33, 수능 4개 영역 등급 평균 7.08)에 대한 정보가 누락되어 있습니다. 또한, 보육가정상담학과의 합격 기준에 대한 정보가 포함되어 있지만, 원본 텍스트와의 직접적인 연관성이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 원본 텍스트의 아동학과와 관련된 정보와 일관성이 떨어집니다. 두 학과의 정보가 혼합되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 아동학과에 대한 정보가 누락되어 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 아동학과와 보육가정상담학과의 정보가 혼합되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 기준에 대한 정보를 제공하지만, 원본 텍스트의 아동학과에 대한 구체적인 데이터가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 관련성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 의미를 적절하게 전달하고 있으나, 원본 텍스트의 아동학과와의 관련성이 부족하여 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 정보의 혼합으로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5888987993972848</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 정시 모집요강을 바탕으로 답변드리겠습니다.
+보육가정상담학과는 인문사회과학대학 계열에 속하며, 일반학생전형으로 모집됩니다. 이 전형의 경우 수능 4개 영역 등급 평균이 합격 기준입니다.
+주요 정보:
+- 수능 4개 영역 등급 평균: { 3.50 /  0.50 / }
+- 지원자 정시 산출 등급: 5.33
+보육가정상담학과의 합격 기준은 수능 4개 영역 등급 평균이 3.50 이상이어야 합니다.
+주어진 지원자의 정시 산출 등급인 5.33은 이 기준을 충족하고 있습니다. 따라서, 이 지원자는 보육가정상담학과에 합격할 가능성이 매우 높습니다.
+하지만 최종 합격 여부는 다음과 같은 요소들로 결정됩니다:
+1. 모집인원 및 지원자 수
+2. 경쟁률
+3. 기타 전형요소 (면접 등)
+따라서, 이 지원자가 보육가정상담학과에 합격할 가능성이 매우 높다고 판단되나, 최종 결과는 입학사정관이 평가한 총합 점수와 경쟁률 등을 고려하여 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 충원 합격자 발표와 관련된 정보와는 관련이 없으며, 다른 학교의 입학 절차에 대한 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 이로 인해 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본과 관련이 없기 때문에 이 점은 무의미합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 내용이 원본과 관련이 없기 때문에 이해의 맥락이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.4299752679032868</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **当前的录取情况**：从表格中可以看到，每个招生单位在不同阶段的录取人数和竞争比例。例如，在“나군 실기/실적(경기실적우수자전형)”表中，可以查看各个专业在各次补充录取中的录取情况。
+2. **你的排名位置**：你在预选名单中的位置（即第12位）对于判断是否有可能被录取非常重要。通常来说，在预选名单中的靠前位置更容易被录取。
+3. **其他考生的情况**：需要了解其他考生的综合成绩和排名，特别是那些在你之后的位置的考生的表现情况。
+4. **学校的具体政策**：不同学校的补充录取政策可能有所不同，有些学校可能会优先考虑某些特定条件的学生（如高分学生、特殊才能等）。
+根据提供的信息，“나군 실기/실적(경기실적우수자전형)”表中显示了各个专业在各次补充录取中的具体数据。例如，在“충원 합격 (후보순위)”列中，可以看到每个招生单位的预选名单顺序。
+假设你是在保育家庭咨询专业的预选名单第12位，那么：
+- **竞争情况**：需要查看该专业前几位考生的具体成绩和排名。
+- **录取趋势**：如果前面的考生已经全部被录取或者放弃，则你的录取机会较大。
+- **学校政策**：了解学校在补充录取时的具体规则，比如是否优先考虑某些特定条件的学生。
+综合来看，在预选名单中的第12位，虽然不是最靠前的位置，但仍然有一定的机会。具体能否被录取还需要结合其他考生的情况和学校的实际录取情况来判断。建议密切关注学校发布的最新信息，并保持与招生办公室的沟通。</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과에 대한 구체적인 지원 가능성에 대한 정보는 원본 텍스트에서 제공된 내용과 일치하지 않습니다. 원본에서는 4.75로 유아교육학과에 지원하기 어렵다고 명시하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 중요 요소로 학생부와 면접을 강조하고 있으나, 원본 텍스트에서 제시된 수능 성적 기준과는 일치하지 않는 부분이 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 일부 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 좋은 기반이 될 것이라고 하지만, 유아교육학과에 대한 지원 가능성에 대한 정보는 원본과 상충합니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균적입니다. 일부 요소는 잘 수행되었으나, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 유아교육학과에 대한 설명이 잘 이루어졌습니다. 그러나 원본의 맥락과는 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6515164366636845</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 대체로 대부분의 대학에서 이 점수를 받으면 좋은 결과를 얻을 가능성이 큽니다.
+유아교육학과에 대해 말씀드리자면, 이 학과의 경우 일반적으로 수능 성적보다는 학생부와 면접 등 다른 평가 요소들이 더 중요하게 작용합니다. 그러나 수능 점수가 높다면, 학생부와 면접에서 좋은 결과를 얻어야 하는 부담이 덜어질 것입니다.
+다만, 유아교육학과는 교직 관련 전공으로, 교직원 자격증 취득을 위한 실기 시험 등 추가적인 평가 요소가 있을 수 있으므로, 이 점도 고려해야 합니다.
+결론적으로:
+1. 4.75라는 수능 성적은 좋은 기반이 될 것입니다.
+2. 유아교육학과는 학생부와 면접이 중요하므로, 이를 잘 준비하는 것이 필요합니다.
+3. 추가적인 실기 시험 등 다른 평가 요소도 고려해야 합니다.
+따라서 4.75라는 성적만으로는 확실한 결과를 보장할 수 없지만, 좋은 기회가 될 것입니다. 학생부와 면접 준비에 집중하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하며, 환산등급 4.16이 최근 몇 년간의 최저 등급보다 높다는 점을 언급하고 있습니다. 그러나, 최저 등급에 대한 구체적인 수치가 다소 다를 수 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 합격 가능성에 대한 평가를 추가적으로 설명하고 있습니다. 다만, 경쟁률에 대한 예측이 원본 텍스트에 명시된 정보와는 다소 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과의 합격 가능성에 대한 분석을 제공하고 있습니다. 모든 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 경쟁률에 대한 예측이 다소 주관적일 수 있습니다. 따라서 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5743796633069888</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(아동학과)에 대해 분석해보겠습니다:
+1. 지원자 성적:
+   - 환산등급: 4.16
+2. 합격 가능성 평가:
+   - 이전 년도의 경쟁률과 최저 등급을 참고해야 합니다.
+   - 최근 몇 년간 보육가정상담학과(아동학과)의 최저 등급은 대략 3.5~4.0 사이였습니다.
+3. 예상 경쟁률:
+   - 모집인원: 17명
+   - 지원 인원: 약 20-30명 정도 추정 (경쟁률 1.2 ~ 1.8)
+4. 합격 가능성:
+   - 환산등급 4.16은 최근 몇 년간의 최저 등급보다 높습니다.
+   - 경쟁률이 낮아서 충분히 합격 가능성이 있습니다.
+5. 참고사항:
+   - 실제 합격 여부는 모집인원, 지원자 수, 기타 평가 요소(면접 등)에 따라 달라질 수 있습니다.
+   - 최종 결정은 입학사정관의 심사를 거쳐야 합니다.
+결론적으로 환산등급 4.16은 충분히 합격 가능성이 높습니다. 하지만 확실한 것은 아니므로, 면접 준비와 기타 서류 제출 등에 만전을 기해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 정시모집에 대한 절차와 예상 수능 등급에 대한 정보는 추가적인 내용으로, 원문과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 정시모집에 대한 절차와 예상 수능 등급에 대한 정보는 원문에서 언급되지 않은 내용입니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 정시모집에 대한 정보와 대안적인 전형에 대한 설명이 포함되어 있어 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 약간의 일관성 저하가 발생할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하며, 추가된 정보도 사실에 기반하고 있습니다. 그러나 정시모집에 대한 구체적인 정보는 확인되지 않았으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 긍정적인 평가를 받을 수 있습니다. 그러나 일부 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 다만, 추가된 정보가 원문과의 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4444684854172232</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도 경희대학교의 소프트웨어융합학과는 정시모집으로 선발되지 않습니다. 
+소프트웨어융합학과는 주로 수능일반학생전형, 학생부종합전형 등 특별전형을 통해 모집됩니다.
+정시모집으로 소프트웨어융합학과에 들어가려면 다음과 같은 절차를 거쳐야 합니다:
+1. 해당 단과대학의 정시모집 공고 확인
+2. 수능일반학생전형으로 지원한 학생들 중 정원 외로 남은 인원이 있는지 확인
+그러나 현재 정보에서는 소프트웨어융합학과가 정시로 모집되는 것은 확인되지 않습니다.
+정시모집을 통해 같은 분야의 학과를 지원하려면, 대체적으로 수능 등급 4등급 이상은 필요할 것으로 예상됩니다. 하지만 최종적인 기준은 경희대학교에서 발표하는 정시모집 공고에 따라 결정되므로, 해당 정보를 확인하시기 바랍니다.
+추가로, 경쟁률과 합격선이 매우 높으므로, 가능성을 고려한다면 수능일반학생전형을 통해 먼저 지원해보는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식과 준비해야 할 서류에 대한 정보를 포함하고 있으며, 세부 사항도 잘 설명하고 있습니다. 그러나 원본 텍스트에서 언급된 '학생부 교과성적'에 대한 언급이 부족하여 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, '학생부 교과성적'에 대한 언급이 없어서 일관성이 떨어집니다. 또한, '세특'에 대한 강조가 원본 텍스트의 평가 기준과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다. 특히 세부 평가 기준과 관련된 내용을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트의 모든 세부 사항을 포함하지 않아 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부 사항에서 다소 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.4716466062231374</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>《나군 학생부종합(조기취업형계약학과전형) - 정원외 서류평가 영역별 세부 평가 기준》 표에서 볼 수 있듯이, 면접 점수와 함께 중요하게 평가되는 부분은 '세특' 내용입니다. 이는 학생의 전공적합성과 관련된 활동 및 경험을 중심으로 평가됩니다.
+따라서 세특 내용에 대해 충분히 준비하는 것이 중요합니다. 특히 지원한 전공(계열)과 관련된 활동이나 경험을 구체적으로 기재하고, 그 활동에서 얻은 성취와 배움을 잘 설명해야 합니다.
+또한, 제출 서류에는 다음과 같은 내용이 포함되어야 합니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학교생활기록부 1부 (온라인 제공 동의자는 제출할 필요 없음)
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 학교생활기록부 대체 서류(제출 여부 선택 가능)
+3. **외국 고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류 (제출 여부 선택 가능)
+   - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+따라서, 세특 내용과 관련 서류 준비가 필요합니다. 특히 외국고교 졸업 예정자는 추가적인 증빙 자료 제출이 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 입학 기준에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트의 핵심 사실인 4.12의 평균 등급과 4.08의 성적 비교를 명확히 반영하지 않고 있습니다. 또한, 원본 텍스트에서 제시된 "최초합격 가능성은 있지만 확실하지는 않다"는 내용을 명확히 전달하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 원본 텍스트는 특정 성적에 대한 가능성을 언급하고 있지만, 생성된 응답은 그에 대한 직접적인 언급이 부족하고, 다른 기준을 제시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 입학 기준에 대한 정보를 제공하려고 하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 전체적으로 일관된 흐름이 부족합니다. 원본 텍스트의 주제와 관련된 정보가 명확히 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 않으며, 특히 성적에 대한 판단 기준이 명확하지 않습니다. 원본 텍스트의 평균 성적과 비교하는 내용이 부족합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 정보의 정확성 및 관련성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있으며, 원본의 맥락과 일치하지 않는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.4905779744154368</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下信息：
+1. 同意大学软件工程学部（ICT融合工学部）的具体录取标准。
+2. 您提供的成绩是否符合这些标准。
+根据您提供的信息，同意大学的软件工程学部（ICT融合工学部）在一般学生入学考试中的录取方法如下：
+- 国语 + 数学 + 英语等级分数 + 探讨（两个科目总分）
+您的成绩是4.08。但是，我们没有具体的分数线或平均分等信息来判断这个成绩是否足够。
+通常情况下，如果您的成绩接近或超过该专业的平均录取分数，则有可能被录取。但具体能否录取还需要参考以下几点：
+1. 专业具体的最低录取分数线。
+2. 您提供的成绩与最近一年的录取数据相比如何。
+3. 是否有其他加分项（如学科特长等）。
+建议您查看同意大学官方网站或联系招生办公室获取最新的录取分数线和详细信息，以确认您的成绩是否符合要求。</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 잘못된 정보와 가정에 기반하고 있습니다. 원본 텍스트는 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 생성된 응답은 수능 성적에 대한 잘못된 가정을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 합격 등급 정보가 없다고 명시하고 있지만, 생성된 응답은 가정에 기반하여 수능 성적을 계산하는 방법을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 합격 등급 정보의 부재에 대해 설명하고 있지만, 생성된 응답은 수능 성적 계산에 대한 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 문제가 있어 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보와 가정이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.4555029140915908</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看相关表格中的信息。根据提供的表格内容，“수능성적 산출 예시”（Korean: 수능 영역별 표준점수）显示了不同科目和等级的标淮分数。
+让我们假设“소프트웨어융합학과”的录取标准是基于5个主要科目的成绩，即国语、数学、英语、科学和社会。如果该专业的录取要求是平均5等，则可以参考以下步骤进行估算：
+1. 查看“수능성적 산출 예시”表格中的不同等级对应的标淮分数。
+2. 假设每个科目都达到5等，计算这些科目的标准分总和。
+3. 计算平均值。
+根据“수능 영어영역 등급에 따른 점수”（Korean: 수능 영어영역 등급에 따른 점수）表格，我们可以看到：
+- 4등급：104
+- 5등급：98
+- 6등급：92
+假设其他科目也都是5等，则每个科目的标准分大约为98。对于5个主要科目（国语、数学、英语、科学和社会），总分为：
+\[ 98 \times 5 = 490 \]
+然后计算平均值：
+\[ \frac{490}{5} = 98 \]
+因此，如果每个科目的成绩都是5等，则可以达到约98的平均分。这通常会是一个较高的分数，但具体是否能够录取还需要参考该专业的实际录取分数线和其他考生的成绩分布情况。
+综上所述，在假设所有科目都为5等的情况下，理论上是可以达到一个相对不错的平均分的，但这并不保证一定能被录取，因为最终录取还取决于其他因素如排名和竞争程度。</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주요 사실을 왜곡하고 있으며, 동의대학교 신소재공학과에 대한 정확한 정보를 제공하지 않고 있습니다. 예를 들어, 경쟁 비율과 평균 점수에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 잘못된 해석을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 동의대학교 신소재공학과의 합격 가능성에 대한 간단한 판단을 제공하지만, 생성된 응답은 다른 대학의 정보를 포함하고 있어 혼란을 초래합니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 특정 대학의 합격 가능성에 대한 질문에 대한 답변을 제공하는 반면, 생성된 응답은 다른 대학의 입학 정보에 초점을 맞추고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성 부족으로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 논리적인 흐름이 부족합니다. 원본 텍스트의 질문에 대한 직접적인 답변이 아닌, 다른 정보를 제공하고 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 예를 들어, 경쟁 비율과 평균 점수는 원본 텍스트에 명시된 내용과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않습니다. 원본 텍스트의 질문에 대한 적절한 답변을 제공하지 않고, 다른 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 일관성과 관련성이 부족하여 전체적으로 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5131814388881432</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **目标专业的录取情况**：从提供的表格中可以看到，东国大学（假设是同济大学）的新材料工程学部在2024年招生时的实际情况。
+   - 招生人数：56人
+   - 报名人数：81人
+   - 竞争比：1.45
+2. **你的成绩**：你提到的成绩是4.28。
+3. **平均分和标准差**：
+   - 国语+数学+选修（加权）的标准化分数总和：378.15
+   - 英语等级：5.06
+   - 4个科目等级：5.78
+根据表格中的数据，我们可以看到：
+- 新材料工程学部的竞争比是1.45。
+- 平均国语+数学+选修（加权）的标准化分数总和为378.15。
+- 英语等级平均值为5.06。
+你的成绩在英语方面略低于平均水平，但在其他科目上表现较好。然而，竞争比是1.45，意味着录取率相对较高，但仍然有一定的竞争压力。
+**结论：**
+根据提供的信息和表格中的数据，你的成绩（尤其是英语）可能处于中等水平，但总体来看还是有希望被新材学部录取的。不过，具体能否录取还需要考虑其他因素如面试表现、个人特长等。建议你准备充分，并保持积极的心态。</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(나군 학생부종합 전형 등)와 관련된 내용이 포함되어 있어, 원문과의 일치성에서 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 나군 학생부종합 전형과 같은 다른 전형에 대한 언급이 있어 일관성이 떨어질 수 있습니다. 원문은 자기소개서가 필요 없다는 단순한 사실을 전달하고 있으나, 생성된 응답은 추가적인 정보를 제공하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 자기소개서의 필요 여부에 대한 정보를 명확히 다루고 있으며, 추가적인 서류 제출에 대한 정보도 포함되어 있어 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 길어져서 약간의 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 추가적인 정보가 포함되어 있어 원문과의 일관성에서 약간의 흐름이 깨질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 나군 학생부종합 전형과 같은 다른 전형에 대한 언급이 있어 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 관련성, 유창성, 일관성 등 여러 차원에서 잘 수행되고 있습니다. 그러나 일부 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 높습니다. 그러나 추가적인 정보가 포함되어 있어 원문의 간단한 메시지와는 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.5937951867365513</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년도 수능 일반학생전형에서는 자기소개서 작성은 필수 항목이 아닙니다. 나군 학생부종합 전형과 같이 자기소개서가 필요할 수 있지만, 기본적으로 가군이나 다군 수능 일반학생전형에서는 서류평가 단계에서 자기소개서를 제출하지 않아도 됩니다.
+만약 특정 모집단위나 전형에서 자기소개서가 요구된다면 해당 정보는 해당 모집단위의 세부 안내에 명시되어 있으므로, 관련 내용을 확인하시기 바랍니다. 
+일반적으로 수능 일반학생전형에서는 다음과 같은 서류를 제출해야 합니다:
+- 학생부 온라인 제공 동의서 (온라인으로 제공되는 경우)
+- 기타 필요한 서류 (단, 일부 모집단위에서 요구될 수 있음)
+자세한 내용은 입학처 홈페이지나 해당 대학의 공지사항을 확인하시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 4.5라는 점수가 높은 성적이라는 점을 언급하고 있으며, 추가 모집에 합격할 확률을 판단하기 위한 여러 요소를 제시하고 있습니다. 그러나, 원본 텍스트에서 제공된 구체적인 평균 등급과 표준 편차에 대한 정보는 포함되어 있지 않아 일부 사실이 누락된 것으로 평가됩니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되게 추가 모집에 대한 정보를 제공하고 있으며, 합격 가능성을 높이기 위한 요소들을 잘 설명하고 있습니다. 다만, 원본 텍스트의 특정 수치(예: 평균 등급)와 비교할 때 다소 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 추가 모집에 대한 질문에 대한 적절한 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 잘 구성되어 있습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원본 텍스트에서 제공된 구체적인 수치나 데이터가 누락되어 있어 완전한 정확성에는 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있으나, 일부 사실이 누락되어 있어 전반적인 품질이 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.5858393204202015</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 성적입니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **모집인원과 지원자 수**: 각 모집단위의 추가모집 인원이 얼마나 되는지, 그리고 이미 최초합격자와 충원 합격자가 얼마나 지원했는지를 확인해야 합니다.
+2. **경쟁률**: 현재 경쟁률이 어느 정도인지 파악해야 합니다. 높은 경쟁률에서는 4.5라는 점수도 상대적으로 낮을 수 있습니다.
+3. **모집단위 별 성적 분포**: 각 모집단위별로 국어, 수학, 영어 등급과 탐구영역의 성적이 어떻게 분포되어 있는지 확인해야 합니다. 4.5라는 점수가 상대적으로 높은지 낮은지를 판단할 수 있습니다.
+4. **가산점**: 일부 모집단위에서는 수학을 응시한 경우 가산점을 받습니다. 이 점수도 고려해야 합니다.
+5. **추가모집 방식**: 추가모집 시에 어떤 방식으로 성적을 산출하는지 확인해야 합니다. 예를 들어, 일부 대학은 최초합격자와 충원 합격자의 평균점수를 기준으로 하기도 합니다.
+6. **대학별 정책**: 각 대학의 추가모집 정책과 절차를 잘 이해하고 있어야 합니다. 일부 대학에서는 특정 점수 이상을 요구하거나, 특정 모집단위에만 추가모집이 가능한 경우도 있습니다.
+따라서, 4.5라는 점수가 충분히 높은지 판단하기 위해서는 위의 요소들을 종합적으로 고려해야 합니다. 또한, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하여 최신 정보와 추가모집에 대한 자세한 내용을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 평균 등급과 관련된 정보를 제공하고 있으며, 수능 성적에 대한 추론을 포함하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 수치(영어 등급 평균 5.06, 수능 4개 영역 등급 평균 5.78)에 대한 언급이 부족하여 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 신소재공학과의 경쟁률 및 평균 점수에 대한 정보를 반복적으로 언급하고 있습니다. 그러나 원본 텍스트의 특정 수치에 대한 언급이 없으므로 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 신소재공학과의 합격 기준에 대한 정보를 잘 다루고 있습니다. 원본 텍스트의 주요 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길고 복잡하여 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 다소 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 합격 기준에 대한 정보를 제공하지만, 원본 텍스트의 특정 수치에 대한 언급이 부족하여 완전한 정확성을 결여하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 일관성에서 높은 점수를 받고 있습니다. 그러나 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항에서 원본 텍스트와의 일치가 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하여 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6342128553188968</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학과의 정시 합격 기준 점수를 직접적으로 확인할 수 없습니다. 하지만, 수능(일반학생전형) 최초합격자와 최종등록자 표에서 일부 정보를 추론해볼 수 있습니다.
+1. **최초합격자 표**:
+   - 신소재공학과는 모집인원이 56명이고 지원 인원은 81명으로, 경쟁률이 1.45입니다.
+   - 최종 합격자의 평균 국어+수학+탐구(2개) 표준 변환 점수 합은 286.97점이며, 이는 상당히 높은 수치입니다.
+2. **최종등록자 표**:
+   - 신소재공학과의 모집인원은 56명이고 지원 인원은 81명으로, 경쟁률이 1.45입니다.
+   - 최종 등록자의 평균 국어+수학+탐구(2개) 표준 변환 점수 합은 286.97점이며, 이 역시 높은 수치입니다.
+3. **전형요소 반영비율**:
+   - 수능 성적만을 기반으로 한 전형이므로, 최종 등록자들의 평균 점수가 대략적인 합격 기준을 나타낼 수 있습니다.
+4. **추론**:
+   - 신소재공학과의 경우, 최초합격자와 최종등록자의 평균 점수를 보면 280점대 중반에서 300점대 초반까지의 점수가 합격 가능할 것으로 추정됩니다.
+   - 그러나 이는 단순 추론이며, 정확한 합격 기준은 입학사정관들이 서류평가와 면접 등을 종합적으로 평가하여 결정합니다.
+따라서, 신소재공학과의 정시 합격 가능 등급을 정확히 예측하기 위해서는 해당 과목의 수능 점수 분포를 고려해야 합니다. 일반적으로 280점대 중반에서 300점대 초반까지의 점수가 합격 가능성 있는 범위일 것으로 추정됩니다. 하지만 최종 합격 가능 등급은 입학사정관들의 평가 결과에 따라 변동될 수 있으므로, 정확한 정보는 동의대학교 입학처에서 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 작년 신소재공학과의 평균 표준 변환 점수를 448점으로 언급하고 있으나, 실제로는 378.15점이었습니다. 이로 인해 응답의 사실성이 크게 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 447점이 평균보다 훨씬 높다고 언급했지만, 생성된 응답은 447점이 평균보다 약간 낮다고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문자의 점수와 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 정보인 평균 점수에 대한 정확한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 응답에서 제공된 정보는 원본 텍스트와 비교했을 때 여러 가지 부정확한 내용이 포함되어 있습니다. 특히 평균 점수에 대한 잘못된 정보가 문제입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 응답의 의미는 대체로 적절하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 평균 점수에 대한 잘못된 정보가 문제입니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.7027781981412639</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 특정 단과대학 및 모집단위별 최종 합격자들의 수능 표준 변환 점수를 분석해보겠습니다. 
+주요 정보:
+- 질문자의 표준점수: 447
+- 작년 신소재공학과의 평균 표준점수: 약 448 (약 1점 높음)
+분석 결과:
+1. **경쟁률 및 모집인원**: 
+   - 신소재공학과는 56명을 모집하며, 지원자 수가 81명으로 많은 경쟁률을 보였습니다.
+   - 작년에도 비슷한 경쟁률이었을 가능성이 높습니다.
+2. **최종 합격 점수 분포**:
+   - 질문자의 표준점수가 작년 평균보다 약간 낮은 경우도 있을 수 있습니다. 
+   - 하지만 작년 최종 합격자들의 점수가 448점으로 높았다는 것은, 해당 단과대학의 입학 기준이 상대적으로 높음을 의미합니다.
+3. **변동성**:
+   - 각 년도마다 수험생들의 성적 분포가 약간 다르므로, 작년보다 작년보다 약간 낮은 점수로 합격하는 가능성은 있습니다.
+   - 하지만 이는 매우 작은 확률일 가능성이 높습니다.
+4. **추천**:
+   - 현재의 점수가 작년 평균보다 약간 낮더라도, 다른 요인들(학력서류, 면접 등)을 고려하면 합격 가능성은 여전히 있습니다.
+   - 동의대학교의 입학사정관들이 다양한 측면에서 지원자를 평가하기 때문에, 단순 점수만으로 판단하지는 않습니다.
+결론적으로, 작년 신소재공학과의 최종 평균 표준점수가 448점이었다면, 질문자의 447점은 약간 낮지만 여전히 합격 가능성은 있습니다. 하지만 확실한 것은 아니며, 다른 요인들을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 제시된 성적 평균 및 분산 정보는 원본 텍스트와 일치하지 않으며, 잘못된 수치를 포함하고 있습니다. 예를 들어, 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균이 310.87로 제시되었으나, 원본 텍스트에서는 271.64로 명시되어 있습니다. 이러한 차이는 사실성을 크게 저해합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 특히, 성적 평균과 관련된 수치가 서로 다르며, 이는 응답의 일관성을 떨어뜨립니다. 또한, 원본 텍스트에서 언급된 합격 가능성에 대한 설명과 생성된 응답의 내용이 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부의 합격 가능성에 대한 정보를 제공하고 있습니다. 그러나 일부 정보는 원본 텍스트의 핵심 포인트와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장 구조가 다소 복잡하여 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요인을 나열하고 있지만, 각 요인 간의 연결이 매끄럽지 않아 전체적인 논리적 흐름이 약간 부족합니다. 정보가 나열된 방식이 다소 단편적입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에서 제공된 성적 관련 정보는 원본 텍스트와 크게 다르며, 이는 정확성을 저해합니다. 특히, 성적 평균과 관련된 수치가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이는 전체적인 품질을 저하시킵니다. 일부 요소는 긍정적이지만, 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 일부 복잡한 문장 구조로 인해 혼란스러울 수 있습니다. 전반적으로는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.6074311631776722</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 점수가 동의대학교에서 정시 모집단위인 신소재공학과(56명 모집)에 충분히 경쟁력을 갖추는지는 다음과 같은 요인들을 고려해야 합니다:
+1. **전반적인 경쟁률**: 2024년 수능 최초합격자 발표 결과를 보면, 신소재공학과의 경쟁률은 약 1.45:1로 비교적 낮습니다.
+2. **성적 평균 및 분산**:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균: 310.87
+   - 영어 등급 평균: 4.33
+   - 수능 4개 영역 표준 변환 점수 합 평균: 431.66
+3. **당신의 예상 성적**:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 약 400-410점대
+   - 영어 등급: 4.1~4.2
+4. **모집인원**: 신소재공학과는 56명을 모집합니다.
+5. **전체 지원자 수**: 최초합격자 발표 결과를 보면, 신소재공학과의 지원자는 약 81명입니다.
+이러한 정보들을 종합적으로 고려하면:
+- 당신의 예상 성적이 평균보다 약간 낮지만, 경쟁률이 낮고 모집인원도 많으므로 충분히 합격 가능성은 있습니다.
+- 그러나 최종 결정에는 수능 성적 외에도 면접 등 다른 요소들이 포함되므로, 전반적인 평가에서 좋은 점수를 받는 것이 중요합니다.
+결론적으로, 4.3등급의 성적이 신소재공학과에 충분히 경쟁력을 갖추고 있는 것은 가능하지만, 확실한 합격을 보장하기 위해서는 추가적인 준비와 노력이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 모집 인원, 지원 인원, 경쟁률 등의 일부 정보는 정확하지만, 평균 성적과 영어 등급에 대한 수치가 원본 텍스트와 다릅니다. 특히, 국어 + 수학 + 탐구(2개) 표준 변환 점수 합이 330.11로 잘못 기재되어 있으며, 영어 등급도 3.30으로 잘못 기재되었습니다. 이러한 오류로 인해 사실성이 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정보에서 원본 텍스트와 일치하지만, 평균 성적과 영어 등급의 수치가 다르기 때문에 일관성이 떨어집니다. 경쟁률과 모집 인원 등은 일치하지만, 성적 관련 정보에서 불일치가 발생하여 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 잘 전달하고 있습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있지만, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 성적 관련 정보의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 성적 관련 정보가 원본 텍스트와 크게 다르기 때문에 정확성 점수가 낮습니다. 특히, 평균 성적과 영어 등급의 수치가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 떨어집니다. 유창성과 일관성은 괜찮지만, 사실적 오류가 많아 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 성적 관련 정보의 오류로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 성적 관련 정보의 오류로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.8454941232775512</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인공지능학과 수능 일반학생전형에 대한 최초합격자들의 성적을 보면, 다음과 같은 정보가 있습니다:
+- 모집인원: 15명
+- 지원인원: 24명 
+- 경쟁률: 약 1.60대 1
+최종등록자의 평균 성적은 다음과 같습니다:
+- 국어+수학+탐구(2개) 표준변환점수 합: 330.11
+- 영어 등급: 3.30
+- 수능 4개 영역 등급: 4.17
+이 정보는 단일 예시이며, 실제 입학사정관 심사 등을 거쳐 최종합격자가 결정되므로 참고용입니다. 성적만으로는 합격을 보장하지 않으니, 전반적인 지원 자질과 경쟁력을 고려하여 지원하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보와 관련이 없으며, 잘못된 정보와 혼란을 초래하는 내용을 포함하고 있습니다. 원본 텍스트의 내용과는 전혀 다른 방향으로 나아가고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트는 특정 성적에 대한 충원 합격 가능성을 다루고 있지만, 생성된 응답은 전혀 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용과는 전혀 상관없는 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 3
+   - 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 흐름이 매끄럽지 않습니다. 그러나 문장 구조는 비교적 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 일관된 주제를 가지고 있지 않으며, 원본 텍스트와의 연결이 부족합니다. 따라서 논리적인 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 성적 기준과 관련된 정보가 전혀 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 모든 품질 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두에서 심각한 결함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 생성된 응답은 문법적으로 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.5362068535547287</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看具体的招生信息。根据您提供的表格内容，“전형요소 반영비율”表中显示：
+- 가군(일반학생전형)、나군(일반학생전형)和다군(일般学生型)的综合评分方法都是：国语 + 数学 + 英语等级分 + 研究领域标准分数。
+但是，您提供的成绩（5.27）似乎是指数学成绩。我们需要知道具体的招生分数线以及您的总分是否达到或超过这些分数线来判断能否被录取。
+从“수능 반영영역 및 가산점”表中可以看到，不同专业和课程对各科目的要求可能有所不同。例如：
+- 一些专业（如医学预科）可能会更重视数学成绩。
+- 其他专业则可能更加注重综合能力或特定领域的技能。
+因此，仅凭您提供的信息无法确定是否能够被录取。建议查看具体的招生简章、分数线以及您的总分是否达到目标专业的最低要求。如果有具体的专业和课程名称，可以进一步提供相关信息以进行更准确的评估。</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 3.77, 수능 4개 영역 4.49)과 비교할 때 4.2라는 성적이 합격 가능성이 높다는 원본의 주장을 명확히 반영하지 못하고 있습니다. 또한, 평균 표준 변환 점수와 관련된 정보는 원본에 포함되어 있지 않으므로, 일부 정보가 부정확하거나 불필요하게 추가되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.2라는 성적이 평균보다 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 일관성이 떨어집니다. 경쟁률과 평균 표준 변환 점수에 대한 정보는 원본에 없으므로, 이로 인해 일관성이 저하되었습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보를 제공하며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 주제와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 왜곡하거나 잘못 해석한 부분이 있습니다. 특히, 4.2라는 성적이 평균보다 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본의 주장을 반영하지 못한 부분이 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5840842254390404</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 성적이 동의대학교 소프트웨어공학부에 어떻게 적용되는지는 명확하지 않습니다. 하지만, 일반적으로 수능 점수를 살펴보겠습니다.
+### 동의대학교 소프트웨어공학부 관련 정보:
+1. **소프트웨어공학부**:
+   - 2024학년도 모집단위: 30명
+   - 최종등록자 지원 인원: 146명
+   - 경쟁률: 약 4.87 (146 / 30)
+   - 평균 표준 변환 점수 합: 330.11
+2. **성적 분석**:
+   - **평균 표준 변환 점수**: 330.11
+   - **표준 편차**: 9.08 (이 값은 성적이 일정 범위 내에서 분산되는 정도를 나타냅니다)
+### 결론:
+- **경쟁률이 높습니다**: 4.87의 경쟁률을 보면, 동일한 점수대에서는 상당히 많은 지원자가 있습니다.
+- **성적 평균보다 낮습니다**: 330.11이라는 평균 표준 변환 점수와 비교하면, 4.2는 약간 낮은 편입니다.
+### 추천:
+1. **추가 지원**:
+   - 다른 대학이나 학과를 추가로 지원하는 것이 좋습니다.
+2. **면접 준비**:
+   - 소프트웨어공학부의 경우, 면접 점수가 중요할 수 있으므로 면접 준비도 철저히 해보세요.
+3. **재정비**:
+   - 만약 가능하다면, 다른 과목이나 영역에서 더 높은 성적을 얻는 방법을 고려해 보세요.
+4. **자기소개서와 추천서**:
+   - 자기소개서와 추천서를 잘 준비하여 지원자의 전반적인 능력을 강조하는 것도 중요합니다.
+### 마지막으로:
+합격 여부는 여러 요인에 따라 결정되므로, 최선을 다해 준비하고 다양한 대안을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급에 대한 정보가 없으며, 제공된 정보에 대한 구체적인 분석이 부족합니다. 따라서, 사실적 정확성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 특히 평균 등급에 대한 언급이 없고, 질문에 대한 직접적인 답변이 부족합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용과는 관련성이 떨어집니다. 특히, 화학환경공학부의 평균 등급에 대한 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 중국어로 되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 정보가 분산되어 있어 명확한 주제를 전달하지 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 필요한 정보가 누락되어 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하려고 하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기에는 무리가 없지만, 원본 텍스트와의 관련성이 부족하여 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.4814517068232032</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个关键信息：
+1. 您的目标专业（化学环境工程学部）的最低录取分数线。
+2. 您的成绩是否满足该专业的基本要求。
+根据您提供的信息，您的成绩是3.92。但是没有提供具体的最低录取线和招生计划等详细信息。因此，仅凭这个分数无法确定您是否有资格被该专业录取。
+建议您：
+1. 查看化学环境工程学部的具体招生简章或官网上的相关信息。
+2. 了解该专业的具体录取分数线和招生人数。
+3. 如果有可能的话，直接咨询东义大学的招生办公室获取最准确的信息。
+通常情况下，如果您的成绩接近或者超过目标专业的最低录取线，并且没有其他不符合条件的情况（如科目限制等），那么您是有机会被录取的。但是具体情况还需要参照当年的实际招生政策和计划来确定。</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 포함하고 있습니다. 원문에서 제공된 구체적인 데이터와 비교할 때, 응답은 사실적 정보가 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문에서 제시된 정보와 일치하지 않으며, 원문에서 제공된 구체적인 수치와 데이터를 무시하고 일반적인 조언을 제공합니다. 이는 일관성이 부족함을 나타냅니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 질문에 대한 답변을 시도하지만, 원문에서 제공된 구체적인 데이터와 관련된 정보가 부족하여 다소 관련성이 떨어집니다. 그러나 여전히 질문의 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원문과의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 구체적인 사실과 수치를 반영하지 않으며, 일반적인 조언으로 대체하고 있습니다. 이는 정확성이 떨어짐을 나타냅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문의 맥락에 맞는 의미를 전달하려고 하지만, 원문에서 제공된 구체적인 정보와는 다소 동떨어져 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원문과의 관련성이 떨어져서 질문에 대한 명확한 답변으로는 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.5041076495659269</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我们需要考虑以下几个因素：
+1. 您的高考成绩（4.25）是否符合目标专业的录取要求。
+2. 化学环境工程专业是否有适合的招生类型和对应的分数线。
+根据您提供的信息，以下是可能适用的情况：
+### 1. 考试类型
+- **一般学生考试型**：这是最常见的高考入学方式。您的成绩4.25（假设是标准分）应该可以考虑。
+### 2. 招生计划
+- 查看化学环境工程专业的招生简章，确认是否有适合的招生类型和对应的分数线。
+### 3. 具体步骤
+1. **查看招生简章**：请详细阅读东义大学化学环境工程专业2024年的招生简章，了解具体的录取标准。
+2. **成绩对比**：
+   - 查看该专业的具体录取分数要求。如果您的高考成绩（假设是标准分）高于或等于该专业的最低录取分数线，则有资格申请。
+3. **其他条件**：除了成绩外，还需要考虑是否有其他附加条件，如面试、特长等。
+### 4. 建议
+- 如果您不确定具体的分数线，请直接联系东义大学招生办公室获取最新信息。
+- 可以参考往年的录取数据来预估今年的分数线。
+综上所述，如果您的高考成绩（假设是标准分）符合化学环境工程专业的最低录取要求，则有可能通过一般学生考试型申请。建议进一步确认具体的专业招生简章和分数线。</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.2라는 점수가 좋은 성적이라는 점을 언급하고 있으며, 영화학과의 경쟁률과 다른 평가 요소들을 고려해야 한다고 설명하고 있습니다. 그러나, 원본 텍스트에서 제공된 구체적인 평균 성적과 관련된 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되게 4.2라는 점수가 좋은 성적임을 강조하고 있으며, 영화학과의 경쟁률과 면접 등의 요소를 언급하고 있습니다. 다만, 원본 텍스트의 구체적인 수치와 비교할 때 다소 일반적인 설명이 추가되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 입학 관련 정보와 조언을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 4.2라는 점수가 좋은 성적이라는 점을 정확하게 반영하고 있지만, 원본 텍스트의 구체적인 수치와 비교할 때 다소 일반적인 정보로 제한되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 정보의 구체성이 부족하여 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6268171088896164</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 정시 전형의 경쟁률과 모집인원, 그리고 해당 학과의 입학사정관들의 평가 기준 등을 고려해야 합니다.
+영화학과에 대한 몇 가지 주요 정보를 바탕으로 답변 드리겠습니다:
+1. 영화학과는 일반적으로 경쟁률이 높은 학과입니다.
+2. 수능 성적 외에도 면접 등 다른 평가 요소들이 중요하게 작용합니다.
+3. 4.2의 점수는 상당히 좋은 수준이지만, 최종 합격 여부는 모집인원과 동점자 처리 기준 등에 따라 달라질 수 있습니다.
+추천 드리는 사항:
+1. 면접 준비를 철저하게 하세요. 면접에서는 창의성, 관심사, 목표 설정 등을 잘 표현해야 합니다.
+2. 서류 제출 시 학교생활기록부와 관련 서류가 충분히 강화되어야 합니다.
+3. 동점자 처리 기준을 잘 확인하고 준비하세요.
+결론적으로 4.2의 성적은 좋은 기반일 수 있지만, 최종 합격 여부는 여러 요소에 따라 결정될 수 있습니다. 최선을 다해 준비하시고, 결과를 기다리시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 원본 텍스트의 내용을 잘 반영하고 있습니다. 그러나 일부 내용이 중국어로 설명되어 있어 한국어로만 제공된 원본 텍스트와의 일관성이 떨어질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 따르지만, 중국어 설명이 추가되어 있어 일관성이 약간 떨어집니다. 원본 텍스트와의 일관성을 유지하기 위해서는 한국어로만 설명하는 것이 더 좋았을 것입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 중국어와 한국어가 혼합되어 있어 일부 독자에게는 읽기 어려울 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 단계별로 설명하고 있습니다. 그러나 중국어 설명이 포함되어 있어 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 면접 절차에 대한 정확한 정보를 제공합니다. 그러나 중국어 설명이 추가되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 주제와 관련된 정보를 제공하고 있습니다. 그러나 언어 혼합으로 인해 일부 차원에서 점수가 낮아질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 중국어 설명이 포함되어 있어 일부 독자에게는 의미가 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 한국어와 중국어가 혼합되어 있어 일부 독자에게는 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.6253528661789689</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文描述：
+```
+면접절차 / ①대기실 입실 ⇨ ②신분 확인 ⇨ ③고사장 앞 이동 ⇨ ④고사장 입실 ⇨ ⑤지원동기 및 학업계획 발표 ⇨ ⑥학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 ⇨ ⑦기타 질의응답(제출서류 진위 여부 등) ⇨ ⑧퇴실 /
+```
+逐句解释如下：
+1. ①候考室入内 →
+2. ②身份确认 →
+3. ③考场前移动 →
+4. ④进入考场 →
+5. ⑤介绍动机和学业计划 →
+6. ⑥关于学业能力和专业适应性的共同问题发言及问答 →
+7. ⑦其他问题回答（提交文件的真实性等）→
+8. ⑧退场 /</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
